--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.09489640522177</v>
+        <v>15.09489640522175</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.014830731311205</v>
+        <v>9.014830731311189</v>
       </c>
       <c r="E2">
-        <v>7.839826025934145</v>
+        <v>7.839826025934182</v>
       </c>
       <c r="F2">
-        <v>65.01876646189341</v>
+        <v>65.01876646189321</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43.8759138248936</v>
+        <v>43.87591382489356</v>
       </c>
       <c r="K2">
-        <v>33.63223372247287</v>
+        <v>33.63223372247285</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.95455615159435</v>
+        <v>13.95455615159436</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.379703446643976</v>
+        <v>8.379703446643964</v>
       </c>
       <c r="E3">
-        <v>7.570418545718471</v>
+        <v>7.570418545718338</v>
       </c>
       <c r="F3">
-        <v>59.78314391843887</v>
+        <v>59.78314391843893</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>40.50222610684864</v>
+        <v>40.50222610684862</v>
       </c>
       <c r="K3">
-        <v>31.01097852579789</v>
+        <v>31.01097852579792</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22806026184889</v>
+        <v>13.22806026184891</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.997281942687325</v>
+        <v>7.997281942687258</v>
       </c>
       <c r="E4">
-        <v>7.412625704079515</v>
+        <v>7.412625704079378</v>
       </c>
       <c r="F4">
-        <v>56.53795961546798</v>
+        <v>56.53795961546787</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>38.36998081300683</v>
+        <v>38.36998081300664</v>
       </c>
       <c r="K4">
-        <v>29.35692445213484</v>
+        <v>29.35692445213469</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.92492770888104</v>
+        <v>12.92492770888102</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.842911504594207</v>
+        <v>7.842911504594234</v>
       </c>
       <c r="E5">
-        <v>7.349722394382333</v>
+        <v>7.349722394382193</v>
       </c>
       <c r="F5">
-        <v>55.26665612542854</v>
+        <v>55.26665612542851</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>37.48373786025726</v>
+        <v>37.48373786025706</v>
       </c>
       <c r="K5">
-        <v>28.67004628015727</v>
+        <v>28.67004628015715</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87415334240206</v>
+        <v>12.87415334240203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.817357399213998</v>
+        <v>7.817357399213977</v>
       </c>
       <c r="E6">
-        <v>7.339349018775883</v>
+        <v>7.339349018775747</v>
       </c>
       <c r="F6">
         <v>55.05505635793323</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>37.3354783654969</v>
+        <v>37.33547836549678</v>
       </c>
       <c r="K6">
-        <v>28.55517363260563</v>
+        <v>28.55517363260556</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.2240013214006</v>
+        <v>13.22400132140064</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.995194558633721</v>
+        <v>7.995194558633687</v>
       </c>
       <c r="E7">
-        <v>7.411772298701303</v>
+        <v>7.411772298701309</v>
       </c>
       <c r="F7">
         <v>56.52084657538899</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>38.35810124288772</v>
+        <v>38.35810124288791</v>
       </c>
       <c r="K7">
-        <v>29.34771487389212</v>
+        <v>29.34771487389225</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.70686294802487</v>
+        <v>14.70686294802486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.79396281619317</v>
+        <v>8.793962816193217</v>
       </c>
       <c r="E8">
-        <v>7.744994976056254</v>
+        <v>7.74499497605632</v>
       </c>
       <c r="F8">
-        <v>63.21818979158861</v>
+        <v>63.21818979158886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>42.72390884275177</v>
+        <v>42.7239088427519</v>
       </c>
       <c r="K8">
-        <v>32.73659339854561</v>
+        <v>32.73659339854574</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43312585334958</v>
+        <v>17.43312585334946</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.52999120554013</v>
+        <v>10.52999120554006</v>
       </c>
       <c r="E9">
-        <v>8.492238847271425</v>
+        <v>8.492238847271528</v>
       </c>
       <c r="F9">
-        <v>76.30756048094234</v>
+        <v>76.30756048094229</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.92587732250389</v>
+        <v>50.92587732250385</v>
       </c>
       <c r="K9">
-        <v>39.12529794870881</v>
+        <v>39.12529794870884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.38010708732223</v>
+        <v>19.38010708732213</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.02191714515945</v>
+        <v>12.02191714515935</v>
       </c>
       <c r="E10">
-        <v>9.17203313778232</v>
+        <v>9.172033137782122</v>
       </c>
       <c r="F10">
-        <v>86.35694895434514</v>
+        <v>86.35694895434462</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>56.98564810767159</v>
+        <v>56.98564810767132</v>
       </c>
       <c r="K10">
-        <v>43.86047639451358</v>
+        <v>43.86047639451344</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.2747706487645</v>
+        <v>20.27477064876456</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.74939485834637</v>
+        <v>12.74939485834647</v>
       </c>
       <c r="E11">
-        <v>9.541229861777891</v>
+        <v>9.541229861777989</v>
       </c>
       <c r="F11">
-        <v>91.21275239382763</v>
+        <v>91.21275239382778</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>59.85028652614947</v>
+        <v>59.85028652614965</v>
       </c>
       <c r="K11">
-        <v>46.10161385400501</v>
+        <v>46.10161385400506</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.61794615911111</v>
+        <v>20.61794615911109</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.03664963482353</v>
+        <v>13.03664963482358</v>
       </c>
       <c r="E12">
-        <v>9.694650309289713</v>
+        <v>9.694650309289678</v>
       </c>
       <c r="F12">
-        <v>93.12125100409318</v>
+        <v>93.12125100409303</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>60.96573434067783</v>
+        <v>60.96573434067771</v>
       </c>
       <c r="K12">
-        <v>46.97445155283926</v>
+        <v>46.97445155283921</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.54377156079476</v>
+        <v>20.5437715607948</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.97415056651479</v>
+        <v>12.9741505665148</v>
       </c>
       <c r="E13">
-        <v>9.660885059510479</v>
+        <v>9.660885059510447</v>
       </c>
       <c r="F13">
-        <v>92.70645562474064</v>
+        <v>92.70645562474039</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>60.72378917057571</v>
+        <v>60.72378917057557</v>
       </c>
       <c r="K13">
-        <v>46.78512794629665</v>
+        <v>46.78512794629647</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.30289143006931</v>
+        <v>20.30289143006935</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.77275325083414</v>
+        <v>12.77275325083415</v>
       </c>
       <c r="E14">
-        <v>9.553538063840495</v>
+        <v>9.553538063840453</v>
       </c>
       <c r="F14">
-        <v>91.36813698600417</v>
+        <v>91.36813698600446</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>59.94131881457897</v>
+        <v>59.94131881457907</v>
       </c>
       <c r="K14">
-        <v>46.17284525532772</v>
+        <v>46.17284525532783</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.15604007242873</v>
+        <v>20.15604007242877</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.6511170036615</v>
+        <v>12.65111700366142</v>
       </c>
       <c r="E15">
-        <v>9.489763013296661</v>
+        <v>9.489763013296697</v>
       </c>
       <c r="F15">
-        <v>90.55861950301779</v>
+        <v>90.5586195030175</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>59.46663778141223</v>
+        <v>59.46663778141226</v>
       </c>
       <c r="K15">
-        <v>45.80141947934867</v>
+        <v>45.80141947934865</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.32204571850028</v>
+        <v>19.32204571850031</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.97570218977636</v>
+        <v>11.97570218977651</v>
       </c>
       <c r="E16">
-        <v>9.149469982104202</v>
+        <v>9.149469982104328</v>
       </c>
       <c r="F16">
-        <v>86.04742561178179</v>
+        <v>86.04742561178213</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>56.80171100251739</v>
+        <v>56.8017110025176</v>
       </c>
       <c r="K16">
-        <v>43.71661340592271</v>
+        <v>43.71661340592286</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.814429491046</v>
+        <v>18.81442949104606</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.5764580822527</v>
+        <v>11.57645808225281</v>
       </c>
       <c r="E17">
-        <v>8.958746385034107</v>
+        <v>8.958746385034301</v>
       </c>
       <c r="F17">
-        <v>83.36854630551346</v>
+        <v>83.36854630551387</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>55.20282470200652</v>
+        <v>55.20282470200668</v>
       </c>
       <c r="K17">
-        <v>42.46636068729792</v>
+        <v>42.46636068729801</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.52305667304093</v>
+        <v>18.52305667304096</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.35102852320032</v>
+        <v>11.35102852320038</v>
       </c>
       <c r="E18">
-        <v>8.854278673035934</v>
+        <v>8.854278673035926</v>
       </c>
       <c r="F18">
-        <v>81.85213428566873</v>
+        <v>81.85213428566898</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>54.29212371202549</v>
+        <v>54.29212371202552</v>
       </c>
       <c r="K18">
-        <v>41.75450012628933</v>
+        <v>41.75450012628939</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.42443607239387</v>
+        <v>18.4244360723939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.27531989754189</v>
+        <v>11.275319897542</v>
       </c>
       <c r="E19">
-        <v>8.819699537863904</v>
+        <v>8.819699537863869</v>
       </c>
       <c r="F19">
-        <v>81.34226346417121</v>
+        <v>81.34226346417147</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>53.98497853381809</v>
+        <v>53.98497853381819</v>
       </c>
       <c r="K19">
-        <v>41.51446499596859</v>
+        <v>41.5144649959687</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.86838741437829</v>
+        <v>18.86838741437834</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.61849706864505</v>
+        <v>11.61849706864498</v>
       </c>
       <c r="E20">
-        <v>8.978481088355437</v>
+        <v>8.978481088355533</v>
       </c>
       <c r="F20">
-        <v>83.65103369593783</v>
+        <v>83.65103369593805</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>55.37202114660801</v>
+        <v>55.37202114660816</v>
       </c>
       <c r="K20">
-        <v>42.59863766822199</v>
+        <v>42.59863766822208</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.37349052373055</v>
+        <v>20.3734905237305</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.83153572040191</v>
+        <v>12.83153572040189</v>
       </c>
       <c r="E21">
-        <v>9.584642000808898</v>
+        <v>9.584642000808966</v>
       </c>
       <c r="F21">
-        <v>91.75901925073907</v>
+        <v>91.75901925073931</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>60.17014768048347</v>
+        <v>60.17014768048352</v>
       </c>
       <c r="K21">
-        <v>46.35190198897131</v>
+        <v>46.35190198897136</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.38592666552283</v>
+        <v>21.38592666552287</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.69800970657879</v>
+        <v>13.69800970657871</v>
       </c>
       <c r="E22">
-        <v>10.06569136500664</v>
+        <v>10.0656913650067</v>
       </c>
       <c r="F22">
-        <v>97.49493389256483</v>
+        <v>97.49493389256459</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>63.50082536098793</v>
+        <v>63.50082536098785</v>
       </c>
       <c r="K22">
-        <v>48.95797307076438</v>
+        <v>48.95797307076428</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84131622914937</v>
+        <v>20.84131622914934</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.22627655356993</v>
+        <v>13.22627655356991</v>
       </c>
       <c r="E23">
-        <v>9.798437447348066</v>
+        <v>9.798437447348132</v>
       </c>
       <c r="F23">
-        <v>94.3782353267876</v>
+        <v>94.37823532678765</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>61.6972876907048</v>
+        <v>61.69728769070482</v>
       </c>
       <c r="K23">
-        <v>47.54688942812545</v>
+        <v>47.54688942812551</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.84399179970454</v>
+        <v>18.84399179970455</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.59947877850374</v>
+        <v>11.59947877850381</v>
       </c>
       <c r="E24">
-        <v>8.969543209872082</v>
+        <v>8.969543209872075</v>
       </c>
       <c r="F24">
-        <v>83.52324916975698</v>
+        <v>83.52324916975742</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>55.29550188235194</v>
+        <v>55.29550188235205</v>
       </c>
       <c r="K24">
-        <v>42.53881443173711</v>
+        <v>42.53881443173723</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.71051317340745</v>
+        <v>16.71051317340736</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.00339216240291</v>
+        <v>10.00339216240288</v>
       </c>
       <c r="E25">
-        <v>8.274275857023754</v>
+        <v>8.274275857023659</v>
       </c>
       <c r="F25">
-        <v>72.73502813549089</v>
+        <v>72.73502813549065</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.72486326322302</v>
+        <v>48.72486326322289</v>
       </c>
       <c r="K25">
-        <v>37.40825713569161</v>
+        <v>37.40825713569156</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.09489640522175</v>
+        <v>15.09489640522177</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.014830731311189</v>
+        <v>9.014830731311205</v>
       </c>
       <c r="E2">
-        <v>7.839826025934182</v>
+        <v>7.839826025934145</v>
       </c>
       <c r="F2">
-        <v>65.01876646189321</v>
+        <v>65.01876646189341</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43.87591382489356</v>
+        <v>43.8759138248936</v>
       </c>
       <c r="K2">
-        <v>33.63223372247285</v>
+        <v>33.63223372247287</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.95455615159436</v>
+        <v>13.95455615159435</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.379703446643964</v>
+        <v>8.379703446643976</v>
       </c>
       <c r="E3">
-        <v>7.570418545718338</v>
+        <v>7.570418545718471</v>
       </c>
       <c r="F3">
-        <v>59.78314391843893</v>
+        <v>59.78314391843887</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>40.50222610684862</v>
+        <v>40.50222610684864</v>
       </c>
       <c r="K3">
-        <v>31.01097852579792</v>
+        <v>31.01097852579789</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22806026184891</v>
+        <v>13.22806026184889</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.997281942687258</v>
+        <v>7.997281942687325</v>
       </c>
       <c r="E4">
-        <v>7.412625704079378</v>
+        <v>7.412625704079515</v>
       </c>
       <c r="F4">
-        <v>56.53795961546787</v>
+        <v>56.53795961546798</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>38.36998081300664</v>
+        <v>38.36998081300683</v>
       </c>
       <c r="K4">
-        <v>29.35692445213469</v>
+        <v>29.35692445213484</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.92492770888102</v>
+        <v>12.92492770888104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.842911504594234</v>
+        <v>7.842911504594207</v>
       </c>
       <c r="E5">
-        <v>7.349722394382193</v>
+        <v>7.349722394382333</v>
       </c>
       <c r="F5">
-        <v>55.26665612542851</v>
+        <v>55.26665612542854</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>37.48373786025706</v>
+        <v>37.48373786025726</v>
       </c>
       <c r="K5">
-        <v>28.67004628015715</v>
+        <v>28.67004628015727</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87415334240203</v>
+        <v>12.87415334240206</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.817357399213977</v>
+        <v>7.817357399213998</v>
       </c>
       <c r="E6">
-        <v>7.339349018775747</v>
+        <v>7.339349018775883</v>
       </c>
       <c r="F6">
         <v>55.05505635793323</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>37.33547836549678</v>
+        <v>37.3354783654969</v>
       </c>
       <c r="K6">
-        <v>28.55517363260556</v>
+        <v>28.55517363260563</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.22400132140064</v>
+        <v>13.2240013214006</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.995194558633687</v>
+        <v>7.995194558633721</v>
       </c>
       <c r="E7">
-        <v>7.411772298701309</v>
+        <v>7.411772298701303</v>
       </c>
       <c r="F7">
         <v>56.52084657538899</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>38.35810124288791</v>
+        <v>38.35810124288772</v>
       </c>
       <c r="K7">
-        <v>29.34771487389225</v>
+        <v>29.34771487389212</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.70686294802486</v>
+        <v>14.70686294802487</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.793962816193217</v>
+        <v>8.79396281619317</v>
       </c>
       <c r="E8">
-        <v>7.74499497605632</v>
+        <v>7.744994976056254</v>
       </c>
       <c r="F8">
-        <v>63.21818979158886</v>
+        <v>63.21818979158861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>42.7239088427519</v>
+        <v>42.72390884275177</v>
       </c>
       <c r="K8">
-        <v>32.73659339854574</v>
+        <v>32.73659339854561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43312585334946</v>
+        <v>17.43312585334958</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.52999120554006</v>
+        <v>10.52999120554013</v>
       </c>
       <c r="E9">
-        <v>8.492238847271528</v>
+        <v>8.492238847271425</v>
       </c>
       <c r="F9">
-        <v>76.30756048094229</v>
+        <v>76.30756048094234</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.92587732250385</v>
+        <v>50.92587732250389</v>
       </c>
       <c r="K9">
-        <v>39.12529794870884</v>
+        <v>39.12529794870881</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.38010708732213</v>
+        <v>19.38010708732223</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.02191714515935</v>
+        <v>12.02191714515945</v>
       </c>
       <c r="E10">
-        <v>9.172033137782122</v>
+        <v>9.17203313778232</v>
       </c>
       <c r="F10">
-        <v>86.35694895434462</v>
+        <v>86.35694895434514</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>56.98564810767132</v>
+        <v>56.98564810767159</v>
       </c>
       <c r="K10">
-        <v>43.86047639451344</v>
+        <v>43.86047639451358</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.27477064876456</v>
+        <v>20.2747706487645</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.74939485834647</v>
+        <v>12.74939485834637</v>
       </c>
       <c r="E11">
-        <v>9.541229861777989</v>
+        <v>9.541229861777891</v>
       </c>
       <c r="F11">
-        <v>91.21275239382778</v>
+        <v>91.21275239382763</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>59.85028652614965</v>
+        <v>59.85028652614947</v>
       </c>
       <c r="K11">
-        <v>46.10161385400506</v>
+        <v>46.10161385400501</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.61794615911109</v>
+        <v>20.61794615911111</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.03664963482358</v>
+        <v>13.03664963482353</v>
       </c>
       <c r="E12">
-        <v>9.694650309289678</v>
+        <v>9.694650309289713</v>
       </c>
       <c r="F12">
-        <v>93.12125100409303</v>
+        <v>93.12125100409318</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>60.96573434067771</v>
+        <v>60.96573434067783</v>
       </c>
       <c r="K12">
-        <v>46.97445155283921</v>
+        <v>46.97445155283926</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.5437715607948</v>
+        <v>20.54377156079476</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.9741505665148</v>
+        <v>12.97415056651479</v>
       </c>
       <c r="E13">
-        <v>9.660885059510447</v>
+        <v>9.660885059510479</v>
       </c>
       <c r="F13">
-        <v>92.70645562474039</v>
+        <v>92.70645562474064</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>60.72378917057557</v>
+        <v>60.72378917057571</v>
       </c>
       <c r="K13">
-        <v>46.78512794629647</v>
+        <v>46.78512794629665</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.30289143006935</v>
+        <v>20.30289143006931</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.77275325083415</v>
+        <v>12.77275325083414</v>
       </c>
       <c r="E14">
-        <v>9.553538063840453</v>
+        <v>9.553538063840495</v>
       </c>
       <c r="F14">
-        <v>91.36813698600446</v>
+        <v>91.36813698600417</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>59.94131881457907</v>
+        <v>59.94131881457897</v>
       </c>
       <c r="K14">
-        <v>46.17284525532783</v>
+        <v>46.17284525532772</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.15604007242877</v>
+        <v>20.15604007242873</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.65111700366142</v>
+        <v>12.6511170036615</v>
       </c>
       <c r="E15">
-        <v>9.489763013296697</v>
+        <v>9.489763013296661</v>
       </c>
       <c r="F15">
-        <v>90.5586195030175</v>
+        <v>90.55861950301779</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>59.46663778141226</v>
+        <v>59.46663778141223</v>
       </c>
       <c r="K15">
-        <v>45.80141947934865</v>
+        <v>45.80141947934867</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.32204571850031</v>
+        <v>19.32204571850028</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.97570218977651</v>
+        <v>11.97570218977636</v>
       </c>
       <c r="E16">
-        <v>9.149469982104328</v>
+        <v>9.149469982104202</v>
       </c>
       <c r="F16">
-        <v>86.04742561178213</v>
+        <v>86.04742561178179</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>56.8017110025176</v>
+        <v>56.80171100251739</v>
       </c>
       <c r="K16">
-        <v>43.71661340592286</v>
+        <v>43.71661340592271</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.81442949104606</v>
+        <v>18.814429491046</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.57645808225281</v>
+        <v>11.5764580822527</v>
       </c>
       <c r="E17">
-        <v>8.958746385034301</v>
+        <v>8.958746385034107</v>
       </c>
       <c r="F17">
-        <v>83.36854630551387</v>
+        <v>83.36854630551346</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>55.20282470200668</v>
+        <v>55.20282470200652</v>
       </c>
       <c r="K17">
-        <v>42.46636068729801</v>
+        <v>42.46636068729792</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.52305667304096</v>
+        <v>18.52305667304093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.35102852320038</v>
+        <v>11.35102852320032</v>
       </c>
       <c r="E18">
-        <v>8.854278673035926</v>
+        <v>8.854278673035934</v>
       </c>
       <c r="F18">
-        <v>81.85213428566898</v>
+        <v>81.85213428566873</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>54.29212371202552</v>
+        <v>54.29212371202549</v>
       </c>
       <c r="K18">
-        <v>41.75450012628939</v>
+        <v>41.75450012628933</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.4244360723939</v>
+        <v>18.42443607239387</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.275319897542</v>
+        <v>11.27531989754189</v>
       </c>
       <c r="E19">
-        <v>8.819699537863869</v>
+        <v>8.819699537863904</v>
       </c>
       <c r="F19">
-        <v>81.34226346417147</v>
+        <v>81.34226346417121</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>53.98497853381819</v>
+        <v>53.98497853381809</v>
       </c>
       <c r="K19">
-        <v>41.5144649959687</v>
+        <v>41.51446499596859</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.86838741437834</v>
+        <v>18.86838741437829</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.61849706864498</v>
+        <v>11.61849706864505</v>
       </c>
       <c r="E20">
-        <v>8.978481088355533</v>
+        <v>8.978481088355437</v>
       </c>
       <c r="F20">
-        <v>83.65103369593805</v>
+        <v>83.65103369593783</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>55.37202114660816</v>
+        <v>55.37202114660801</v>
       </c>
       <c r="K20">
-        <v>42.59863766822208</v>
+        <v>42.59863766822199</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.3734905237305</v>
+        <v>20.37349052373055</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.83153572040189</v>
+        <v>12.83153572040191</v>
       </c>
       <c r="E21">
-        <v>9.584642000808966</v>
+        <v>9.584642000808898</v>
       </c>
       <c r="F21">
-        <v>91.75901925073931</v>
+        <v>91.75901925073907</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>60.17014768048352</v>
+        <v>60.17014768048347</v>
       </c>
       <c r="K21">
-        <v>46.35190198897136</v>
+        <v>46.35190198897131</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.38592666552287</v>
+        <v>21.38592666552283</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.69800970657871</v>
+        <v>13.69800970657879</v>
       </c>
       <c r="E22">
-        <v>10.0656913650067</v>
+        <v>10.06569136500664</v>
       </c>
       <c r="F22">
-        <v>97.49493389256459</v>
+        <v>97.49493389256483</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>63.50082536098785</v>
+        <v>63.50082536098793</v>
       </c>
       <c r="K22">
-        <v>48.95797307076428</v>
+        <v>48.95797307076438</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84131622914934</v>
+        <v>20.84131622914937</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.22627655356991</v>
+        <v>13.22627655356993</v>
       </c>
       <c r="E23">
-        <v>9.798437447348132</v>
+        <v>9.798437447348066</v>
       </c>
       <c r="F23">
-        <v>94.37823532678765</v>
+        <v>94.3782353267876</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>61.69728769070482</v>
+        <v>61.6972876907048</v>
       </c>
       <c r="K23">
-        <v>47.54688942812551</v>
+        <v>47.54688942812545</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.84399179970455</v>
+        <v>18.84399179970454</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.59947877850381</v>
+        <v>11.59947877850374</v>
       </c>
       <c r="E24">
-        <v>8.969543209872075</v>
+        <v>8.969543209872082</v>
       </c>
       <c r="F24">
-        <v>83.52324916975742</v>
+        <v>83.52324916975698</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>55.29550188235205</v>
+        <v>55.29550188235194</v>
       </c>
       <c r="K24">
-        <v>42.53881443173723</v>
+        <v>42.53881443173711</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.71051317340736</v>
+        <v>16.71051317340745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.00339216240288</v>
+        <v>10.00339216240291</v>
       </c>
       <c r="E25">
-        <v>8.274275857023659</v>
+        <v>8.274275857023754</v>
       </c>
       <c r="F25">
-        <v>72.73502813549065</v>
+        <v>72.73502813549089</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.72486326322289</v>
+        <v>48.72486326322302</v>
       </c>
       <c r="K25">
-        <v>37.40825713569156</v>
+        <v>37.40825713569161</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.09489640522177</v>
+        <v>15.04413322476092</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.014830731311205</v>
+        <v>9.030786908353155</v>
       </c>
       <c r="E2">
-        <v>7.839826025934145</v>
+        <v>7.487767893426485</v>
       </c>
       <c r="F2">
-        <v>65.01876646189341</v>
+        <v>64.73420961932693</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.941404638921053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43.8759138248936</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>33.63223372247287</v>
+        <v>43.50762525018652</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>33.39795818475027</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.95455615159435</v>
+        <v>13.90849684851204</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.379703446643976</v>
+        <v>8.41699740245355</v>
       </c>
       <c r="E3">
-        <v>7.570418545718471</v>
+        <v>7.217582522205182</v>
       </c>
       <c r="F3">
-        <v>59.78314391843887</v>
+        <v>59.57206159968204</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.968555695180618</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>40.50222610684864</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>31.01097852579789</v>
+        <v>40.15305459094056</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30.7910906951768</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22806026184889</v>
+        <v>13.18487274375748</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.997281942687325</v>
+        <v>8.048598827235965</v>
       </c>
       <c r="E4">
-        <v>7.412625704079515</v>
+        <v>7.05886592464603</v>
       </c>
       <c r="F4">
-        <v>56.53795961546798</v>
+        <v>56.46479868448666</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.985033316954225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>38.36998081300683</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>29.35692445213484</v>
+        <v>38.03184544935744</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>29.14538068242083</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.92492770888104</v>
+        <v>12.88291920247303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.842911504594207</v>
+        <v>7.900194010947621</v>
       </c>
       <c r="E5">
-        <v>7.349722394382333</v>
+        <v>6.995491763719386</v>
       </c>
       <c r="F5">
-        <v>55.26665612542854</v>
+        <v>55.21587825253194</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.991729421388771</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>37.48373786025726</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>28.67004628015727</v>
+        <v>37.14997518224526</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>28.46181922031701</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87415334240206</v>
+        <v>12.83234146872267</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.817357399213998</v>
+        <v>7.875646075089565</v>
       </c>
       <c r="E6">
-        <v>7.339349018775883</v>
+        <v>6.985034935362329</v>
       </c>
       <c r="F6">
-        <v>55.05505635793323</v>
+        <v>55.00805542393663</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.992840941008076</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>37.3354783654969</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>28.55517363260563</v>
+        <v>37.00243544758094</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>28.34749319791767</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.2240013214006</v>
+        <v>13.18082965328138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.995194558633721</v>
+        <v>8.046590860931097</v>
       </c>
       <c r="E7">
-        <v>7.411772298701303</v>
+        <v>7.058006531353909</v>
       </c>
       <c r="F7">
-        <v>56.52084657538899</v>
+        <v>56.44798356883896</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.985123663289453</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>38.35810124288772</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>29.34771487389212</v>
+        <v>38.02002529899362</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29.13621612918257</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.70686294802487</v>
+        <v>14.65773373613133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.79396281619317</v>
+        <v>8.817099441212148</v>
       </c>
       <c r="E8">
-        <v>7.744994976056254</v>
+        <v>7.392773611409435</v>
       </c>
       <c r="F8">
-        <v>63.21818979158861</v>
+        <v>62.95857849040319</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.950826531806993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>42.72390884275177</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>32.73659339854561</v>
+        <v>42.36239461525824</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>32.50740865621641</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43312585334958</v>
+        <v>17.3713748038461</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.52999120554013</v>
+        <v>10.43478867774737</v>
       </c>
       <c r="E9">
-        <v>8.492238847271425</v>
+        <v>8.138291724533591</v>
       </c>
       <c r="F9">
-        <v>76.30756048094234</v>
+        <v>75.86825103691393</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.880234018606763</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.92587732250389</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>39.12529794870881</v>
+        <v>50.50911518654103</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>38.85474166415269</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.38010708732223</v>
+        <v>19.30660549864835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.02191714515945</v>
+        <v>11.9017309229549</v>
       </c>
       <c r="E10">
-        <v>9.17203313778232</v>
+        <v>8.810831245975669</v>
       </c>
       <c r="F10">
-        <v>86.35694895434514</v>
+        <v>85.76978717464991</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.822630244240143</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>56.98564810767159</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>43.86047639451358</v>
+        <v>56.51314162107196</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>43.54835983174841</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.2747706487645</v>
+        <v>20.19444315173852</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.74939485834637</v>
+        <v>12.61565056711684</v>
       </c>
       <c r="E11">
-        <v>9.541229861777891</v>
+        <v>9.173789764414726</v>
       </c>
       <c r="F11">
-        <v>91.21275239382763</v>
+        <v>90.54494823896826</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.793715905199974</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>59.85028652614947</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>46.10161385400501</v>
+        <v>59.34421629232165</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>45.76451971476194</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.61794615911111</v>
+        <v>20.53464648715618</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.03664963482353</v>
+        <v>12.89715463675302</v>
       </c>
       <c r="E12">
-        <v>9.694650309289713</v>
+        <v>9.324108867901703</v>
       </c>
       <c r="F12">
-        <v>93.12125100409318</v>
+        <v>92.41918586287871</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.782159439310942</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>60.96573434067783</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>46.97445155283926</v>
+        <v>60.44485097774898</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>46.62634253413707</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.54377156079476</v>
+        <v>20.46113378832153</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.97415056651479</v>
+        <v>12.83592933162964</v>
       </c>
       <c r="E13">
-        <v>9.660885059510479</v>
+        <v>9.291052868894663</v>
       </c>
       <c r="F13">
-        <v>92.70645562474064</v>
+        <v>92.01198152110865</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.784680308582055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>60.72378917057571</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>46.78512794629665</v>
+        <v>60.2062138756748</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>46.43947832719878</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.30289143006931</v>
+        <v>20.22232874036361</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.77275325083414</v>
+        <v>12.63855089129311</v>
       </c>
       <c r="E14">
-        <v>9.553538063840495</v>
+        <v>9.185860526461951</v>
       </c>
       <c r="F14">
-        <v>91.36813698600417</v>
+        <v>90.69760484068972</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.792779049080216</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>59.94131881457897</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>46.17284525532772</v>
+        <v>59.43408037683572</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>45.83488226498652</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.15604007242873</v>
+        <v>20.07669021566624</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.6511170036615</v>
+        <v>12.51928268513808</v>
       </c>
       <c r="E15">
-        <v>9.489763013296661</v>
+        <v>9.123294672883379</v>
       </c>
       <c r="F15">
-        <v>90.55861950301779</v>
+        <v>89.90218791804966</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.797651980624587</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>59.46663778141223</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>45.80141947934867</v>
+        <v>58.96541577036006</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>45.46793155379276</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.32204571850028</v>
+        <v>19.2489485546128</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.97570218977636</v>
+        <v>11.85633730269514</v>
       </c>
       <c r="E16">
-        <v>9.149469982104202</v>
+        <v>8.788595368930062</v>
       </c>
       <c r="F16">
-        <v>86.04742561178179</v>
+        <v>85.46514172990656</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.824449447673944</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>56.80171100251739</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>43.71661340592271</v>
+        <v>56.33117022164552</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>43.40596061200761</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.814429491046</v>
+        <v>18.74470286621904</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.5764580822527</v>
+        <v>11.46403134191644</v>
       </c>
       <c r="E17">
-        <v>8.958746385034107</v>
+        <v>8.600397728096954</v>
       </c>
       <c r="F17">
-        <v>83.36854630551346</v>
+        <v>82.82742735515089</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.840074657253964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>55.20282470200652</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>42.46636068729792</v>
+        <v>54.74855094915383</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>42.16782554666768</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.52305667304093</v>
+        <v>18.45514418101535</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.35102852320032</v>
+        <v>11.24241149316742</v>
       </c>
       <c r="E18">
-        <v>8.854278673035934</v>
+        <v>8.497133499404155</v>
       </c>
       <c r="F18">
-        <v>81.85213428566873</v>
+        <v>81.3335848160676</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.848824411148579</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>54.29212371202549</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>41.75450012628933</v>
+        <v>53.84651281092986</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>41.46242154785835</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.42443607239387</v>
+        <v>18.35711977042397</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.27531989754189</v>
+        <v>11.1679675238918</v>
       </c>
       <c r="E19">
-        <v>8.819699537863904</v>
+        <v>8.462924915528045</v>
       </c>
       <c r="F19">
-        <v>81.34226346417121</v>
+        <v>80.8312002170337</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.851750963797804</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>53.98497853381809</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>41.51446499596859</v>
+        <v>53.5421991775618</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>41.22449737568385</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.86838741437829</v>
+        <v>18.79831572437967</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.61849706864505</v>
+        <v>11.5053519526255</v>
       </c>
       <c r="E20">
-        <v>8.978481088355437</v>
+        <v>8.619890852844247</v>
       </c>
       <c r="F20">
-        <v>83.65103369593783</v>
+        <v>83.10565610663626</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.8384371033131</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>55.37202114660801</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>42.59863766822199</v>
+        <v>54.9160919794742</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>42.29886900314311</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.37349052373055</v>
+        <v>20.29233102553128</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.83153572040191</v>
+        <v>12.69617339605522</v>
       </c>
       <c r="E21">
-        <v>9.584642000808898</v>
+        <v>9.216355680744606</v>
       </c>
       <c r="F21">
-        <v>91.75901925073907</v>
+        <v>91.08157817760132</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.790419142976373</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>60.17014768048347</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>46.35190198897131</v>
+        <v>59.65994173244363</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>46.01173206023387</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.38592666552283</v>
+        <v>21.29502417040017</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.69800970657879</v>
+        <v>13.54412563586879</v>
       </c>
       <c r="E22">
-        <v>10.06569136500664</v>
+        <v>9.686309636156389</v>
       </c>
       <c r="F22">
-        <v>97.49493389256483</v>
+        <v>96.70704481447895</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.755271656607108</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>63.50082536098793</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>48.95797307076438</v>
+        <v>62.94161324385102</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>48.58138615708008</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84131622914937</v>
+        <v>20.7559527202637</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.22627655356993</v>
+        <v>13.08283339645374</v>
       </c>
       <c r="E23">
-        <v>9.798437447348066</v>
+        <v>9.425619249316442</v>
       </c>
       <c r="F23">
-        <v>94.3782353267876</v>
+        <v>93.65263349500003</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.77448927810569</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>61.6972876907048</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>47.54688942812545</v>
+        <v>61.16605788377009</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>47.19108990347431</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.84399179970454</v>
+        <v>18.77407648822286</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.59947877850374</v>
+        <v>11.48665897977999</v>
       </c>
       <c r="E24">
-        <v>8.969543209872082</v>
+        <v>8.611062947883239</v>
       </c>
       <c r="F24">
-        <v>83.52324916975698</v>
+        <v>82.97980021819798</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.839178154148122</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>55.29550188235194</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>42.53881443173711</v>
+        <v>54.8403232193313</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>42.23960499051088</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.71051317340745</v>
+        <v>16.65241892814354</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.00339216240291</v>
+        <v>9.973923422011342</v>
       </c>
       <c r="E25">
-        <v>8.274275857023754</v>
+        <v>7.92152492873736</v>
       </c>
       <c r="F25">
-        <v>72.73502813549089</v>
+        <v>72.34501743299282</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.89999116358334</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.72486326322302</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>37.40825713569161</v>
+        <v>48.3247221652543</v>
       </c>
       <c r="L25">
+        <v>37.15011966314039</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.04413322476092</v>
+        <v>7.298508596651692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.030786908353155</v>
+        <v>18.76810951719436</v>
       </c>
       <c r="E2">
-        <v>7.487767893426485</v>
+        <v>23.41075446337555</v>
       </c>
       <c r="F2">
-        <v>64.73420961932693</v>
+        <v>108.1005994620235</v>
       </c>
       <c r="G2">
-        <v>1.941404638921053</v>
+        <v>1.65345838820735</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>43.50762525018652</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>33.39795818475027</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>56.39369478423244</v>
+      </c>
+      <c r="N2">
+        <v>11.36895795760291</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.90849684851204</v>
+        <v>6.92588903193903</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.41699740245355</v>
+        <v>16.44130286177435</v>
       </c>
       <c r="E3">
-        <v>7.217582522205182</v>
+        <v>20.98611823839266</v>
       </c>
       <c r="F3">
-        <v>59.57206159968204</v>
+        <v>95.13228990354548</v>
       </c>
       <c r="G3">
-        <v>1.968555695180618</v>
+        <v>1.740747535161587</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>40.15305459094056</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.7910906951768</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>50.29447662614387</v>
+      </c>
+      <c r="N3">
+        <v>11.77580758387995</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18487274375748</v>
+        <v>6.692812499389354</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.048598827235965</v>
+        <v>15.19446258268724</v>
       </c>
       <c r="E4">
-        <v>7.05886592464603</v>
+        <v>19.6796080397209</v>
       </c>
       <c r="F4">
-        <v>56.46479868448666</v>
+        <v>88.14499530561605</v>
       </c>
       <c r="G4">
-        <v>1.985033316954225</v>
+        <v>1.785105579125478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>38.03184544935744</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>29.14538068242083</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>46.91590092069988</v>
+      </c>
+      <c r="N4">
+        <v>11.98307321499681</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.88291920247303</v>
+        <v>6.596666213680927</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.900194010947621</v>
+        <v>14.70836926648448</v>
       </c>
       <c r="E5">
-        <v>6.995491763719386</v>
+        <v>19.16770269998793</v>
       </c>
       <c r="F5">
-        <v>55.21587825253194</v>
+        <v>85.41617651176237</v>
       </c>
       <c r="G5">
-        <v>1.991729421388771</v>
+        <v>1.801945759967478</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>37.14997518224526</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.46181922031701</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>45.57851644595402</v>
+      </c>
+      <c r="N5">
+        <v>12.0621876845432</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83234146872267</v>
+        <v>6.580631142453358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.875646075089565</v>
+        <v>14.62859075766873</v>
       </c>
       <c r="E6">
-        <v>6.985034935362329</v>
+        <v>19.08353120925463</v>
       </c>
       <c r="F6">
-        <v>55.00805542393663</v>
+        <v>84.96812513372458</v>
       </c>
       <c r="G6">
-        <v>1.992840941008076</v>
+        <v>1.804685391583297</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>37.00243544758094</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.34749319791767</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>45.35794961645606</v>
+      </c>
+      <c r="N6">
+        <v>12.07508908924701</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18082965328138</v>
+        <v>6.691520554819815</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.046590860931097</v>
+        <v>15.18783682652341</v>
       </c>
       <c r="E7">
-        <v>7.058006531353909</v>
+        <v>19.67264108958705</v>
       </c>
       <c r="F7">
-        <v>56.44798356883896</v>
+        <v>88.1078147424505</v>
       </c>
       <c r="G7">
-        <v>1.985123663289453</v>
+        <v>1.785336826677861</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>38.02002529899362</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>29.13621612918257</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>46.89774722736619</v>
+      </c>
+      <c r="N7">
+        <v>11.9841575960465</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.65773373613133</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.817099441212148</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E8">
-        <v>7.392773611409435</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F8">
-        <v>62.95857849040319</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G8">
-        <v>1.950826531806993</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>42.36239461525824</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>32.50740865621641</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N8">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.3713748038461</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.43478867774737</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E9">
-        <v>8.138291724533591</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F9">
-        <v>75.86825103691393</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G9">
-        <v>1.880234018606763</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>50.50911518654103</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>38.85474166415269</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N9">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.30660549864835</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.9017309229549</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E10">
-        <v>8.810831245975669</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F10">
-        <v>85.76978717464991</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G10">
-        <v>1.822630244240143</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>56.51314162107196</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>43.54835983174841</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N10">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.19444315173852</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.61565056711684</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E11">
-        <v>9.173789764414726</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F11">
-        <v>90.54494823896826</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G11">
-        <v>1.793715905199974</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>59.34421629232165</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>45.76451971476194</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N11">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.53464648715618</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.89715463675302</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E12">
-        <v>9.324108867901703</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F12">
-        <v>92.41918586287871</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G12">
-        <v>1.782159439310942</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>60.44485097774898</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>46.62634253413707</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N12">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.46113378832153</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.83592933162964</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E13">
-        <v>9.291052868894663</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F13">
-        <v>92.01198152110865</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G13">
-        <v>1.784680308582055</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>60.2062138756748</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>46.43947832719878</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N13">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.22232874036361</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.63855089129311</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E14">
-        <v>9.185860526461951</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F14">
-        <v>90.69760484068972</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G14">
-        <v>1.792779049080216</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>59.43408037683572</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>45.83488226498652</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N14">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07669021566624</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.51928268513808</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E15">
-        <v>9.123294672883379</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F15">
-        <v>89.90218791804966</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G15">
-        <v>1.797651980624587</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>58.96541577036006</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>45.46793155379276</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N15">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.2489485546128</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.85633730269514</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E16">
-        <v>8.788595368930062</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F16">
-        <v>85.46514172990656</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G16">
-        <v>1.824449447673944</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>56.33117022164552</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>43.40596061200761</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N16">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.74470286621904</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.46403134191644</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E17">
-        <v>8.600397728096954</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F17">
-        <v>82.82742735515089</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G17">
-        <v>1.840074657253964</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>54.74855094915383</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>42.16782554666768</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N17">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.45514418101535</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.24241149316742</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E18">
-        <v>8.497133499404155</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F18">
-        <v>81.3335848160676</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G18">
-        <v>1.848824411148579</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>53.84651281092986</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>41.46242154785835</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N18">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.35711977042397</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.1679675238918</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E19">
-        <v>8.462924915528045</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F19">
-        <v>80.8312002170337</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G19">
-        <v>1.851750963797804</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>53.5421991775618</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>41.22449737568385</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N19">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.79831572437967</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.5053519526255</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E20">
-        <v>8.619890852844247</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F20">
-        <v>83.10565610663626</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G20">
-        <v>1.8384371033131</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>54.9160919794742</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>42.29886900314311</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N20">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.29233102553128</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.69617339605522</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E21">
-        <v>9.216355680744606</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F21">
-        <v>91.08157817760132</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G21">
-        <v>1.790419142976373</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>59.65994173244363</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>46.01173206023387</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N21">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.29502417040017</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.54412563586879</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E22">
-        <v>9.686309636156389</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F22">
-        <v>96.70704481447895</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G22">
-        <v>1.755271656607108</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>62.94161324385102</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>48.58138615708008</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N22">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.7559527202637</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.08283339645374</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E23">
-        <v>9.425619249316442</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F23">
-        <v>93.65263349500003</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G23">
-        <v>1.77448927810569</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>61.16605788377009</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>47.19108990347431</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N23">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.77407648822286</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.48665897977999</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E24">
-        <v>8.611062947883239</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F24">
-        <v>82.97980021819798</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G24">
-        <v>1.839178154148122</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>54.8403232193313</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>42.23960499051088</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N24">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.65241892814354</v>
+        <v>7.170791873073107</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.973923422011342</v>
+        <v>17.90546190508183</v>
       </c>
       <c r="E25">
-        <v>7.92152492873736</v>
+        <v>22.51243080148528</v>
       </c>
       <c r="F25">
-        <v>72.34501743299282</v>
+        <v>103.3059176714174</v>
       </c>
       <c r="G25">
-        <v>1.89999116358334</v>
+        <v>1.686508997276725</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>48.3247221652543</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>37.15011966314039</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>54.16450024687885</v>
+      </c>
+      <c r="N25">
+        <v>11.52320198270651</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.298508596651692</v>
+        <v>20.14686738233879</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.76810951719436</v>
+        <v>6.954816868763028</v>
       </c>
       <c r="E2">
-        <v>23.41075446337555</v>
+        <v>14.13556747056285</v>
       </c>
       <c r="F2">
-        <v>108.1005994620235</v>
+        <v>16.34547674202998</v>
       </c>
       <c r="G2">
-        <v>1.65345838820735</v>
+        <v>20.29847580743503</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.751737947122292</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.73893202714035</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.575353188046131</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.81955160446836</v>
       </c>
       <c r="M2">
-        <v>56.39369478423244</v>
+        <v>16.11037383784801</v>
       </c>
       <c r="N2">
-        <v>11.36895795760291</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.65166135709536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.92588903193903</v>
+        <v>18.86520307582223</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.44130286177435</v>
+        <v>7.021051196269534</v>
       </c>
       <c r="E3">
-        <v>20.98611823839266</v>
+        <v>13.90230089454798</v>
       </c>
       <c r="F3">
-        <v>95.13228990354548</v>
+        <v>16.36618802925566</v>
       </c>
       <c r="G3">
-        <v>1.740747535161587</v>
+        <v>19.54228309391505</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.763973441030666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.01084636162063</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.4057175871616</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.08444094968611</v>
       </c>
       <c r="M3">
-        <v>50.29447662614387</v>
+        <v>15.18089054803158</v>
       </c>
       <c r="N3">
-        <v>11.77580758387995</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.50383301725556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.692812499389354</v>
+        <v>18.03343531488092</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.19446258268724</v>
+        <v>7.064470115276135</v>
       </c>
       <c r="E4">
-        <v>19.6796080397209</v>
+        <v>13.76076547281818</v>
       </c>
       <c r="F4">
-        <v>88.14499530561605</v>
+        <v>16.40335234162718</v>
       </c>
       <c r="G4">
-        <v>1.785105579125478</v>
+        <v>19.09481171542728</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.77853308937707</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.19309427948805</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.301815903806418</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.60736544685833</v>
       </c>
       <c r="M4">
-        <v>46.91590092069988</v>
+        <v>14.58093306679255</v>
       </c>
       <c r="N4">
-        <v>11.98307321499681</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.42776398422277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.596666213680927</v>
+        <v>17.68324341189119</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.70836926648448</v>
+        <v>7.082851918710735</v>
       </c>
       <c r="E5">
-        <v>19.16770269998793</v>
+        <v>13.70357961805426</v>
       </c>
       <c r="F5">
-        <v>85.41617651176237</v>
+        <v>16.42435476252247</v>
       </c>
       <c r="G5">
-        <v>1.801945759967478</v>
+        <v>18.91697069015309</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.786169996798662</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.27103560522648</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.259584761025637</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.40651257380008</v>
       </c>
       <c r="M5">
-        <v>45.57851644595402</v>
+        <v>14.32920876822555</v>
       </c>
       <c r="N5">
-        <v>12.0621876845432</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.40037353494517</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.580631142453358</v>
+        <v>17.62441679045811</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.62859075766873</v>
+        <v>7.085945674951385</v>
       </c>
       <c r="E6">
-        <v>19.08353120925463</v>
+        <v>13.69411552998533</v>
       </c>
       <c r="F6">
-        <v>84.96812513372458</v>
+        <v>16.42818738190831</v>
       </c>
       <c r="G6">
-        <v>1.804685391583297</v>
+        <v>18.88772038135084</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.78753900199824</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.2841948576307</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.252580279132236</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.37277311321937</v>
       </c>
       <c r="M6">
-        <v>45.35794961645606</v>
+        <v>14.28697716115289</v>
       </c>
       <c r="N6">
-        <v>12.07508908924701</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.39604047068173</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.691520554819815</v>
+        <v>18.02875795756698</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.18783682652341</v>
+        <v>7.064715236405893</v>
       </c>
       <c r="E7">
-        <v>19.67264108958705</v>
+        <v>13.75999216937186</v>
       </c>
       <c r="F7">
-        <v>88.1078147424505</v>
+        <v>16.40361225822469</v>
       </c>
       <c r="G7">
-        <v>1.785336826677861</v>
+        <v>19.09239468345469</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.778629275337432</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.19413076417016</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.301245855217505</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.60468270977825</v>
       </c>
       <c r="M7">
-        <v>46.89774722736619</v>
+        <v>14.57756734606359</v>
       </c>
       <c r="N7">
-        <v>11.9841575960465</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.4273801032026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.170791873073107</v>
+        <v>19.71426397440464</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.90546190508183</v>
+        <v>6.977081382431775</v>
       </c>
       <c r="E8">
-        <v>22.51243080148528</v>
+        <v>14.05482541922937</v>
       </c>
       <c r="F8">
-        <v>103.3059176714174</v>
+        <v>16.3473721388977</v>
       </c>
       <c r="G8">
-        <v>1.686508997276725</v>
+        <v>20.03441266762509</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.754453131229104</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.82940673831396</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.516836803931891</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.57143373667992</v>
       </c>
       <c r="M8">
-        <v>54.16450024687885</v>
+        <v>15.79602071054536</v>
       </c>
       <c r="N8">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.59759116620935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.170791873073107</v>
+        <v>22.66357999732882</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.90546190508183</v>
+        <v>6.827225627825942</v>
       </c>
       <c r="E9">
-        <v>22.51243080148528</v>
+        <v>14.6435660335545</v>
       </c>
       <c r="F9">
-        <v>103.3059176714174</v>
+        <v>16.44346262279076</v>
       </c>
       <c r="G9">
-        <v>1.686508997276725</v>
+        <v>22.00325723496801</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.765989624350682</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.24398505856736</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.939701405972759</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.26270930452235</v>
       </c>
       <c r="M9">
-        <v>54.16450024687885</v>
+        <v>17.94957349682883</v>
       </c>
       <c r="N9">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.0511830292856</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.170791873073107</v>
+        <v>24.61417441578631</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.90546190508183</v>
+        <v>6.730786018869401</v>
       </c>
       <c r="E10">
-        <v>22.51243080148528</v>
+        <v>15.07885731868431</v>
       </c>
       <c r="F10">
-        <v>103.3059176714174</v>
+        <v>16.65567543987903</v>
       </c>
       <c r="G10">
-        <v>1.686508997276725</v>
+        <v>23.50867717798496</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.814485075217862</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.9059029775297</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.24796369778384</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.38067251327194</v>
       </c>
       <c r="M10">
-        <v>54.16450024687885</v>
+        <v>19.4382409587457</v>
       </c>
       <c r="N10">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.46082430422321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.170791873073107</v>
+        <v>25.4549962258636</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.90546190508183</v>
+        <v>6.689940748034137</v>
       </c>
       <c r="E11">
-        <v>22.51243080148528</v>
+        <v>15.27673695790611</v>
       </c>
       <c r="F11">
-        <v>103.3059176714174</v>
+        <v>16.78594095961434</v>
       </c>
       <c r="G11">
-        <v>1.686508997276725</v>
+        <v>24.20354700417435</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.846085720777175</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.77525511892181</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.38719211690243</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.86237281116604</v>
       </c>
       <c r="M11">
-        <v>54.16450024687885</v>
+        <v>20.09392370724416</v>
       </c>
       <c r="N11">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.66421627152386</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.170791873073107</v>
+        <v>25.76674831572581</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.90546190508183</v>
+        <v>6.67491453867321</v>
       </c>
       <c r="E12">
-        <v>22.51243080148528</v>
+        <v>15.35159098202382</v>
       </c>
       <c r="F12">
-        <v>103.3059176714174</v>
+        <v>16.8403303431067</v>
       </c>
       <c r="G12">
-        <v>1.686508997276725</v>
+        <v>24.46792890413303</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.859491105474102</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.72940058069694</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.43973298294494</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.04093696420264</v>
       </c>
       <c r="M12">
-        <v>54.16450024687885</v>
+        <v>20.33699859304657</v>
       </c>
       <c r="N12">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.74370728021196</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.170791873073107</v>
+        <v>25.69990192408551</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.90546190508183</v>
+        <v>6.678130988414701</v>
       </c>
       <c r="E13">
-        <v>22.51243080148528</v>
+        <v>15.33547423296194</v>
       </c>
       <c r="F13">
-        <v>103.3059176714174</v>
+        <v>16.8283884696685</v>
       </c>
       <c r="G13">
-        <v>1.686508997276725</v>
+        <v>24.41093668164403</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.856538973809638</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.7391103776541</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.42842603276512</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.0026506612505</v>
       </c>
       <c r="M13">
-        <v>54.16450024687885</v>
+        <v>20.28487958658872</v>
       </c>
       <c r="N13">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.72647734622677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.170791873073107</v>
+        <v>25.48077725730593</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.90546190508183</v>
+        <v>6.688695658676873</v>
       </c>
       <c r="E14">
-        <v>22.51243080148528</v>
+        <v>15.28289714700964</v>
       </c>
       <c r="F14">
-        <v>103.3059176714174</v>
+        <v>16.79031307122197</v>
       </c>
       <c r="G14">
-        <v>1.686508997276725</v>
+        <v>24.22527380824116</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.847159374982845</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.77140837210715</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.3915185389002</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.87714033651915</v>
       </c>
       <c r="M14">
-        <v>54.16450024687885</v>
+        <v>20.11402600336539</v>
       </c>
       <c r="N14">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.67070643986338</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.170791873073107</v>
+        <v>25.34569249827571</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.90546190508183</v>
+        <v>6.695224440402532</v>
       </c>
       <c r="E15">
-        <v>22.51243080148528</v>
+        <v>15.25068021948366</v>
       </c>
       <c r="F15">
-        <v>103.3059176714174</v>
+        <v>16.76765563845334</v>
       </c>
       <c r="G15">
-        <v>1.686508997276725</v>
+        <v>24.1117074989513</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.841603444477944</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.79167209460637</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.36888686375645</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.79976148567872</v>
       </c>
       <c r="M15">
-        <v>54.16450024687885</v>
+        <v>20.00869473052613</v>
       </c>
       <c r="N15">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.63686737941812</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.170791873073107</v>
+        <v>24.55829198134677</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.90546190508183</v>
+        <v>6.733516732772447</v>
       </c>
       <c r="E16">
-        <v>22.51243080148528</v>
+        <v>15.06591754580436</v>
       </c>
       <c r="F16">
-        <v>103.3059176714174</v>
+        <v>16.6478595780192</v>
       </c>
       <c r="G16">
-        <v>1.686508997276725</v>
+        <v>23.4634505249969</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.812617645126539</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.91493125904303</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.23884133932092</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.34865307650501</v>
       </c>
       <c r="M16">
-        <v>54.16450024687885</v>
+        <v>19.39465856637128</v>
       </c>
       <c r="N16">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.44787703852086</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.170791873073107</v>
+        <v>24.06335982891027</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.90546190508183</v>
+        <v>6.757786818842732</v>
       </c>
       <c r="E17">
-        <v>22.51243080148528</v>
+        <v>14.95249358372263</v>
       </c>
       <c r="F17">
-        <v>103.3059176714174</v>
+        <v>16.58316528004024</v>
       </c>
       <c r="G17">
-        <v>1.686508997276725</v>
+        <v>23.06818968056413</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.797327534935684</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.99667541670638</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.15877829635152</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.06504279382021</v>
       </c>
       <c r="M17">
-        <v>54.16450024687885</v>
+        <v>19.0086386755275</v>
       </c>
       <c r="N17">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.33632005516628</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.170791873073107</v>
+        <v>23.77430697994353</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.90546190508183</v>
+        <v>6.772030731478063</v>
       </c>
       <c r="E18">
-        <v>22.51243080148528</v>
+        <v>14.88724560222331</v>
       </c>
       <c r="F18">
-        <v>103.3059176714174</v>
+        <v>16.54911854277069</v>
       </c>
       <c r="G18">
-        <v>1.686508997276725</v>
+        <v>22.84180136678265</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.789427106743786</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.04585255386856</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.11263597735383</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.89938741682043</v>
       </c>
       <c r="M18">
-        <v>54.16450024687885</v>
+        <v>18.78317241522646</v>
       </c>
       <c r="N18">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.27375914829528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.170791873073107</v>
+        <v>23.67568513500174</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.90546190508183</v>
+        <v>6.776902148299975</v>
       </c>
       <c r="E19">
-        <v>22.51243080148528</v>
+        <v>14.86515397609134</v>
       </c>
       <c r="F19">
-        <v>103.3059176714174</v>
+        <v>16.53812743554504</v>
       </c>
       <c r="G19">
-        <v>1.686508997276725</v>
+        <v>22.76532073750897</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.786903632696515</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.06286557057901</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.09699834711965</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.84286430812507</v>
       </c>
       <c r="M19">
-        <v>54.16450024687885</v>
+        <v>18.70624212077052</v>
       </c>
       <c r="N19">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.25285178601853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.170791873073107</v>
+        <v>24.11649935141965</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.90546190508183</v>
+        <v>6.755173750797741</v>
       </c>
       <c r="E20">
-        <v>22.51243080148528</v>
+        <v>14.96456918176945</v>
       </c>
       <c r="F20">
-        <v>103.3059176714174</v>
+        <v>16.58972305884221</v>
       </c>
       <c r="G20">
-        <v>1.686508997276725</v>
+        <v>23.11016852649982</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.798862171279432</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.98774801587963</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.16731096642892</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.09549534701931</v>
       </c>
       <c r="M20">
-        <v>54.16450024687885</v>
+        <v>19.05008674931421</v>
       </c>
       <c r="N20">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.34802933542171</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.170791873073107</v>
+        <v>25.54531957863725</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.90546190508183</v>
+        <v>6.68558054054859</v>
       </c>
       <c r="E21">
-        <v>22.51243080148528</v>
+        <v>15.29834290138906</v>
       </c>
       <c r="F21">
-        <v>103.3059176714174</v>
+        <v>16.80135784624496</v>
       </c>
       <c r="G21">
-        <v>1.686508997276725</v>
+        <v>24.279774957929</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.84987481446105</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.76182103367858</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.4023643902654</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.91410995386901</v>
       </c>
       <c r="M21">
-        <v>54.16450024687885</v>
+        <v>20.16435118244553</v>
       </c>
       <c r="N21">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.6870205303064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.170791873073107</v>
+        <v>26.44040496900327</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.90546190508183</v>
+        <v>6.64267097203778</v>
       </c>
       <c r="E22">
-        <v>22.51243080148528</v>
+        <v>15.51599967021738</v>
       </c>
       <c r="F22">
-        <v>103.3059176714174</v>
+        <v>16.96924970459409</v>
       </c>
       <c r="G22">
-        <v>1.686508997276725</v>
+        <v>25.05139965857546</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.891631212938147</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.63540805236243</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.55490940018092</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.42672019273206</v>
       </c>
       <c r="M22">
-        <v>54.16450024687885</v>
+        <v>20.86219137791981</v>
       </c>
       <c r="N22">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.92297692242265</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.170791873073107</v>
+        <v>25.96620994081535</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.90546190508183</v>
+        <v>6.665335050066144</v>
       </c>
       <c r="E23">
-        <v>22.51243080148528</v>
+        <v>15.39989502819599</v>
       </c>
       <c r="F23">
-        <v>103.3059176714174</v>
+        <v>16.8768737051266</v>
       </c>
       <c r="G23">
-        <v>1.686508997276725</v>
+        <v>24.63896379190772</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.868553280644325</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.70083201166605</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.4736035278166</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.15517304876403</v>
       </c>
       <c r="M23">
-        <v>54.16450024687885</v>
+        <v>20.49251057286835</v>
       </c>
       <c r="N23">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.79571985968972</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.170791873073107</v>
+        <v>24.0924890231159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.90546190508183</v>
+        <v>6.756354213786111</v>
       </c>
       <c r="E24">
-        <v>22.51243080148528</v>
+        <v>14.95910992095682</v>
       </c>
       <c r="F24">
-        <v>103.3059176714174</v>
+        <v>16.58674850150749</v>
       </c>
       <c r="G24">
-        <v>1.686508997276725</v>
+        <v>23.09118721995516</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.798165594959003</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.99177732117142</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.16345369538056</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.08173586006468</v>
       </c>
       <c r="M24">
-        <v>54.16450024687885</v>
+        <v>19.03135909838435</v>
       </c>
       <c r="N24">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.3427306666077</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.170791873073107</v>
+        <v>21.90379376204704</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.90546190508183</v>
+        <v>6.865386361360382</v>
       </c>
       <c r="E25">
-        <v>22.51243080148528</v>
+        <v>14.48355367850274</v>
       </c>
       <c r="F25">
-        <v>103.3059176714174</v>
+        <v>16.39367597326585</v>
       </c>
       <c r="G25">
-        <v>1.686508997276725</v>
+        <v>21.45925428149704</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.756132465951236</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.38720109009692</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.825557904710523</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.82709425161152</v>
       </c>
       <c r="M25">
-        <v>54.16450024687885</v>
+        <v>17.39264823922556</v>
       </c>
       <c r="N25">
-        <v>11.52320198270651</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.9152498827919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.14686738233879</v>
+        <v>16.66518678398402</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.954816868763028</v>
+        <v>11.33933034893824</v>
       </c>
       <c r="E2">
-        <v>14.13556747056285</v>
+        <v>17.62885846872599</v>
       </c>
       <c r="F2">
-        <v>16.34547674202998</v>
+        <v>27.62294620771841</v>
       </c>
       <c r="G2">
-        <v>20.29847580743503</v>
+        <v>25.47447013607522</v>
       </c>
       <c r="H2">
-        <v>7.751737947122292</v>
+        <v>13.41207476211121</v>
       </c>
       <c r="I2">
-        <v>15.73893202714035</v>
+        <v>24.83148595105494</v>
       </c>
       <c r="J2">
-        <v>9.575353188046131</v>
+        <v>12.05773791558464</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.81955160446836</v>
+        <v>10.79510665838266</v>
       </c>
       <c r="M2">
-        <v>16.11037383784801</v>
+        <v>16.19514583551026</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.65166135709536</v>
+        <v>19.98460378381252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.86520307582223</v>
+        <v>16.17437411603451</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.021051196269534</v>
+        <v>11.37644539660668</v>
       </c>
       <c r="E3">
-        <v>13.90230089454798</v>
+        <v>17.59821573736666</v>
       </c>
       <c r="F3">
-        <v>16.36618802925566</v>
+        <v>27.77336721179054</v>
       </c>
       <c r="G3">
-        <v>19.54228309391505</v>
+        <v>25.49446655214466</v>
       </c>
       <c r="H3">
-        <v>7.763973441030666</v>
+        <v>13.46179234910285</v>
       </c>
       <c r="I3">
-        <v>16.01084636162063</v>
+        <v>24.97839359500082</v>
       </c>
       <c r="J3">
-        <v>9.4057175871616</v>
+        <v>12.02950035231013</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.08444094968611</v>
+        <v>10.54801856234324</v>
       </c>
       <c r="M3">
-        <v>15.18089054803158</v>
+        <v>15.90648031536592</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.50383301725556</v>
+        <v>20.05552231726789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.03343531488092</v>
+        <v>15.86494060245285</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.064470115276135</v>
+        <v>11.4007473088732</v>
       </c>
       <c r="E4">
-        <v>13.76076547281818</v>
+        <v>17.58158597191007</v>
       </c>
       <c r="F4">
-        <v>16.40335234162718</v>
+        <v>27.87383025980564</v>
       </c>
       <c r="G4">
-        <v>19.09481171542728</v>
+        <v>25.51783447980701</v>
       </c>
       <c r="H4">
-        <v>7.77853308937707</v>
+        <v>13.49499600592076</v>
       </c>
       <c r="I4">
-        <v>16.19309427948805</v>
+        <v>25.07486455153248</v>
       </c>
       <c r="J4">
-        <v>9.301815903806418</v>
+        <v>12.01323661427007</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.60736544685833</v>
+        <v>10.39301836073373</v>
       </c>
       <c r="M4">
-        <v>14.58093306679255</v>
+        <v>15.72646210000873</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.42776398422277</v>
+        <v>20.10461729050217</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68324341189119</v>
+        <v>15.73696961883554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.082851918710735</v>
+        <v>11.41103193706514</v>
       </c>
       <c r="E5">
-        <v>13.70357961805426</v>
+        <v>17.57536489309905</v>
       </c>
       <c r="F5">
-        <v>16.42435476252247</v>
+        <v>27.91680065858917</v>
       </c>
       <c r="G5">
-        <v>18.91697069015309</v>
+        <v>25.53013494578788</v>
       </c>
       <c r="H5">
-        <v>7.786169996798662</v>
+        <v>13.50919905606407</v>
       </c>
       <c r="I5">
-        <v>16.27103560522648</v>
+        <v>25.1157529297159</v>
       </c>
       <c r="J5">
-        <v>9.259584761025637</v>
+        <v>12.00688354943168</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.40651257380008</v>
+        <v>10.3290977722059</v>
       </c>
       <c r="M5">
-        <v>14.32920876822555</v>
+        <v>15.65247777174396</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.40037353494517</v>
+        <v>20.12601470569147</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.62441679045811</v>
+        <v>15.71561171833947</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.085945674951385</v>
+        <v>11.412762754402</v>
       </c>
       <c r="E6">
-        <v>13.69411552998533</v>
+        <v>17.57436562677066</v>
       </c>
       <c r="F6">
-        <v>16.42818738190831</v>
+        <v>27.9240583189793</v>
       </c>
       <c r="G6">
-        <v>18.88772038135084</v>
+        <v>25.53234483458089</v>
       </c>
       <c r="H6">
-        <v>7.78753900199824</v>
+        <v>13.51159804197025</v>
       </c>
       <c r="I6">
-        <v>16.2841948576307</v>
+        <v>25.12263756170648</v>
       </c>
       <c r="J6">
-        <v>9.252580279132236</v>
+        <v>12.00584533544964</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.37277311321937</v>
+        <v>10.31844021453109</v>
       </c>
       <c r="M6">
-        <v>14.28697716115289</v>
+        <v>15.6401571252749</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39604047068173</v>
+        <v>20.1296515826426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.02875795756698</v>
+        <v>15.8632221154598</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.064715236405893</v>
+        <v>11.40088446546466</v>
       </c>
       <c r="E7">
-        <v>13.75999216937186</v>
+        <v>17.58149981427646</v>
       </c>
       <c r="F7">
-        <v>16.40361225822469</v>
+        <v>27.87440155979139</v>
       </c>
       <c r="G7">
-        <v>19.09239468345469</v>
+        <v>25.51798913713245</v>
       </c>
       <c r="H7">
-        <v>7.778629275337432</v>
+        <v>13.49518483225471</v>
       </c>
       <c r="I7">
-        <v>16.19413076417016</v>
+        <v>25.07540960752341</v>
       </c>
       <c r="J7">
-        <v>9.301245855217505</v>
+        <v>12.01314981729781</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.60468270977825</v>
+        <v>10.39215927439491</v>
       </c>
       <c r="M7">
-        <v>14.57756734606359</v>
+        <v>15.72546675613379</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.4273801032026</v>
+        <v>20.10490023890187</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.71426397440464</v>
+        <v>16.49771957054795</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.977081382431775</v>
+        <v>11.35181411855682</v>
       </c>
       <c r="E8">
-        <v>14.05482541922937</v>
+        <v>17.61784319011556</v>
       </c>
       <c r="F8">
-        <v>16.3473721388977</v>
+        <v>27.67312525254807</v>
       </c>
       <c r="G8">
-        <v>20.03441266762509</v>
+        <v>25.47905746717138</v>
       </c>
       <c r="H8">
-        <v>7.754453131229104</v>
+        <v>13.42866131275197</v>
       </c>
       <c r="I8">
-        <v>15.82940673831396</v>
+        <v>24.88083810185284</v>
       </c>
       <c r="J8">
-        <v>9.516836803931891</v>
+        <v>12.04778133424549</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.57143373667992</v>
+        <v>10.71063364414251</v>
       </c>
       <c r="M8">
-        <v>15.79602071054536</v>
+        <v>16.09623308239618</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.59759116620935</v>
+        <v>20.0079015346274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.66357999732882</v>
+        <v>17.67170637807492</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.827225627825942</v>
+        <v>11.26755223052</v>
       </c>
       <c r="E9">
-        <v>14.6435660335545</v>
+        <v>17.70616449609591</v>
       </c>
       <c r="F9">
-        <v>16.44346262279076</v>
+        <v>27.34303140222436</v>
       </c>
       <c r="G9">
-        <v>22.00325723496801</v>
+        <v>25.49106017480511</v>
       </c>
       <c r="H9">
-        <v>7.765989624350682</v>
+        <v>13.31948492779786</v>
       </c>
       <c r="I9">
-        <v>15.24398505856736</v>
+        <v>24.54906162372647</v>
       </c>
       <c r="J9">
-        <v>9.939701405972759</v>
+        <v>12.12401865041901</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.26270930452235</v>
+        <v>11.30620805988894</v>
       </c>
       <c r="M9">
-        <v>17.94957349682883</v>
+        <v>16.7982108740103</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.0511830292856</v>
+        <v>19.86194142331031</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.61417441578631</v>
+        <v>18.48395346465076</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.730786018869401</v>
+        <v>11.21288269939104</v>
       </c>
       <c r="E10">
-        <v>15.07885731868431</v>
+        <v>17.78105286292928</v>
       </c>
       <c r="F10">
-        <v>16.65567543987903</v>
+        <v>27.14031595821703</v>
       </c>
       <c r="G10">
-        <v>23.50867717798496</v>
+        <v>25.55402484776882</v>
       </c>
       <c r="H10">
-        <v>7.814485075217862</v>
+        <v>13.25229230421684</v>
       </c>
       <c r="I10">
-        <v>14.9059029775297</v>
+        <v>24.3357040568023</v>
       </c>
       <c r="J10">
-        <v>10.24796369778384</v>
+        <v>12.1848325357228</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.38067251327194</v>
+        <v>11.72256834979141</v>
       </c>
       <c r="M10">
-        <v>19.4382409587457</v>
+        <v>17.29475568649626</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.46082430422321</v>
+        <v>19.78195725524263</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.4549962258636</v>
+        <v>18.84121095189112</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.689940748034137</v>
+        <v>11.18957178987219</v>
       </c>
       <c r="E11">
-        <v>15.27673695790611</v>
+        <v>17.81720264631264</v>
       </c>
       <c r="F11">
-        <v>16.78594095961434</v>
+        <v>27.05682744199318</v>
       </c>
       <c r="G11">
-        <v>24.20354700417435</v>
+        <v>25.5944246012327</v>
       </c>
       <c r="H11">
-        <v>7.846085720777175</v>
+        <v>13.22456182754242</v>
       </c>
       <c r="I11">
-        <v>14.77525511892181</v>
+        <v>24.24525675141362</v>
       </c>
       <c r="J11">
-        <v>10.38719211690243</v>
+        <v>12.2134802879432</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.86237281116604</v>
+        <v>11.90670687099754</v>
       </c>
       <c r="M11">
-        <v>20.09392370724416</v>
+        <v>17.51571481753188</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.66421627152386</v>
+        <v>19.75154106048748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.76674831572581</v>
+        <v>18.97463877664989</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.67491453867321</v>
+        <v>11.18096775571715</v>
       </c>
       <c r="E12">
-        <v>15.35159098202382</v>
+        <v>17.83118305572185</v>
       </c>
       <c r="F12">
-        <v>16.8403303431067</v>
+        <v>27.02647489980705</v>
       </c>
       <c r="G12">
-        <v>24.46792890413303</v>
+        <v>25.61140842717722</v>
       </c>
       <c r="H12">
-        <v>7.859491105474102</v>
+        <v>13.21446964307589</v>
       </c>
       <c r="I12">
-        <v>14.72940058069694</v>
+        <v>24.21195875207096</v>
       </c>
       <c r="J12">
-        <v>10.43973298294494</v>
+        <v>12.22446444195231</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.04093696420264</v>
+        <v>11.97562784204798</v>
       </c>
       <c r="M12">
-        <v>20.33699859304657</v>
+        <v>17.59861930517901</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.74370728021196</v>
+        <v>19.74088543657532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.69990192408551</v>
+        <v>18.94598678488108</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.678130988414701</v>
+        <v>11.18281086991525</v>
       </c>
       <c r="E13">
-        <v>15.33547423296194</v>
+        <v>17.82815930347545</v>
       </c>
       <c r="F13">
-        <v>16.8283884696685</v>
+        <v>27.03295557992372</v>
       </c>
       <c r="G13">
-        <v>24.41093668164403</v>
+        <v>25.60767581920236</v>
       </c>
       <c r="H13">
-        <v>7.856538973809638</v>
+        <v>13.21662498144733</v>
       </c>
       <c r="I13">
-        <v>14.7391103776541</v>
+        <v>24.21908768070349</v>
       </c>
       <c r="J13">
-        <v>10.42842603276512</v>
+        <v>12.22209285392112</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.0026506612505</v>
+        <v>11.96082119584366</v>
       </c>
       <c r="M13">
-        <v>20.28487958658872</v>
+        <v>17.58079941576025</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.72647734622677</v>
+        <v>19.74314190357184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.48077725730593</v>
+        <v>18.85222589744287</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.688695658676873</v>
+        <v>11.18885946014785</v>
       </c>
       <c r="E14">
-        <v>15.28289714700964</v>
+        <v>17.81834703343414</v>
       </c>
       <c r="F14">
-        <v>16.79031307122197</v>
+        <v>27.05430496887427</v>
       </c>
       <c r="G14">
-        <v>24.22527380824116</v>
+        <v>25.5957881360616</v>
       </c>
       <c r="H14">
-        <v>7.847159374982845</v>
+        <v>13.22372334016143</v>
       </c>
       <c r="I14">
-        <v>14.77140837210715</v>
+        <v>24.2424982054641</v>
       </c>
       <c r="J14">
-        <v>10.3915185389002</v>
+        <v>12.21438126981667</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.87714033651915</v>
+        <v>11.91239351790142</v>
       </c>
       <c r="M14">
-        <v>20.11402600336539</v>
+        <v>17.52255114257824</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.67070643986338</v>
+        <v>19.75064711187716</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.34569249827571</v>
+        <v>18.79454997127401</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.695224440402532</v>
+        <v>11.1925934527126</v>
       </c>
       <c r="E15">
-        <v>15.25068021948366</v>
+        <v>17.81237441876082</v>
       </c>
       <c r="F15">
-        <v>16.76765563845334</v>
+        <v>27.06754676043667</v>
       </c>
       <c r="G15">
-        <v>24.1117074989513</v>
+        <v>25.58872585401941</v>
       </c>
       <c r="H15">
-        <v>7.841603444477944</v>
+        <v>13.22812454868831</v>
       </c>
       <c r="I15">
-        <v>14.79167209460637</v>
+        <v>24.25696192124444</v>
       </c>
       <c r="J15">
-        <v>10.36888686375645</v>
+        <v>12.20967523082751</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.79976148567872</v>
+        <v>11.88262345869171</v>
       </c>
       <c r="M15">
-        <v>20.00869473052613</v>
+        <v>17.48677065834127</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.63686737941812</v>
+        <v>19.75535668206669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.55829198134677</v>
+        <v>18.46035096845531</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.733516732772447</v>
+        <v>11.2144374140974</v>
       </c>
       <c r="E16">
-        <v>15.06591754580436</v>
+        <v>17.77873160179156</v>
       </c>
       <c r="F16">
-        <v>16.6478595780192</v>
+        <v>27.14594841426118</v>
       </c>
       <c r="G16">
-        <v>23.4634505249969</v>
+        <v>25.55162082462491</v>
       </c>
       <c r="H16">
-        <v>7.812617645126539</v>
+        <v>13.25416170217443</v>
       </c>
       <c r="I16">
-        <v>14.91493125904303</v>
+        <v>24.34174817352372</v>
       </c>
       <c r="J16">
-        <v>10.23884133932092</v>
+        <v>12.18297965393651</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.34865307650501</v>
+        <v>11.7104240416388</v>
       </c>
       <c r="M16">
-        <v>19.39465856637128</v>
+        <v>17.28021122379683</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.44787703852086</v>
+        <v>19.78406548580448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.06335982891027</v>
+        <v>18.25212316549113</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.757786818842732</v>
+        <v>11.22823657342457</v>
       </c>
       <c r="E17">
-        <v>14.95249358372263</v>
+        <v>17.7586204821579</v>
       </c>
       <c r="F17">
-        <v>16.58316528004024</v>
+        <v>27.19628618260119</v>
       </c>
       <c r="G17">
-        <v>23.06818968056413</v>
+        <v>25.53186651834469</v>
       </c>
       <c r="H17">
-        <v>7.797327534935684</v>
+        <v>13.27086165760743</v>
       </c>
       <c r="I17">
-        <v>14.99667541670638</v>
+        <v>24.3954561206093</v>
       </c>
       <c r="J17">
-        <v>10.15877829635152</v>
+        <v>12.16685072191037</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.06504279382021</v>
+        <v>11.60339890767324</v>
       </c>
       <c r="M17">
-        <v>19.0086386755275</v>
+        <v>17.15218919270428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.33632005516628</v>
+        <v>19.80320916014979</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.77430697994353</v>
+        <v>18.13120932787215</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.772030731478063</v>
+        <v>11.23632022973467</v>
       </c>
       <c r="E18">
-        <v>14.88724560222331</v>
+        <v>17.7472496383475</v>
       </c>
       <c r="F18">
-        <v>16.54911854277069</v>
+        <v>27.22606017649036</v>
       </c>
       <c r="G18">
-        <v>22.84180136678265</v>
+        <v>25.52161148713657</v>
       </c>
       <c r="H18">
-        <v>7.789427106743786</v>
+        <v>13.28073389160713</v>
       </c>
       <c r="I18">
-        <v>15.04585255386856</v>
+        <v>24.4269695656227</v>
       </c>
       <c r="J18">
-        <v>10.11263597735383</v>
+        <v>12.15766666885814</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.89938741682043</v>
+        <v>11.54134801951551</v>
       </c>
       <c r="M18">
-        <v>18.78317241522646</v>
+        <v>17.07809444102746</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.27375914829528</v>
+        <v>19.81478170824224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.67568513500174</v>
+        <v>18.09007619280171</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.776902148299975</v>
+        <v>11.2390824453543</v>
       </c>
       <c r="E19">
-        <v>14.86515397609134</v>
+        <v>17.74343366833153</v>
       </c>
       <c r="F19">
-        <v>16.53812743554504</v>
+        <v>27.23628191785981</v>
       </c>
       <c r="G19">
-        <v>22.76532073750897</v>
+        <v>25.51832956931132</v>
       </c>
       <c r="H19">
-        <v>7.786903632696515</v>
+        <v>13.28412226438943</v>
       </c>
       <c r="I19">
-        <v>15.06286557057901</v>
+        <v>24.43774625903788</v>
       </c>
       <c r="J19">
-        <v>10.09699834711965</v>
+        <v>12.15457322489722</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.84286430812507</v>
+        <v>11.52025562960559</v>
       </c>
       <c r="M19">
-        <v>18.70624212077052</v>
+        <v>17.05293014185183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.25285178601853</v>
+        <v>19.81879630458083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.11649935141965</v>
+        <v>18.27440879479165</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.755173750797741</v>
+        <v>11.22675244773913</v>
       </c>
       <c r="E20">
-        <v>14.96456918176945</v>
+        <v>17.76074106273501</v>
       </c>
       <c r="F20">
-        <v>16.58972305884221</v>
+        <v>27.19084261050681</v>
       </c>
       <c r="G20">
-        <v>23.11016852649982</v>
+        <v>25.53385484326788</v>
       </c>
       <c r="H20">
-        <v>7.798862171279432</v>
+        <v>13.26905629263626</v>
       </c>
       <c r="I20">
-        <v>14.98774801587963</v>
+        <v>24.38967442424051</v>
       </c>
       <c r="J20">
-        <v>10.16731096642892</v>
+        <v>12.16855810086758</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.09549534701931</v>
+        <v>11.61484330830185</v>
       </c>
       <c r="M20">
-        <v>19.05008674931421</v>
+        <v>17.16586539827303</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.34802933542171</v>
+        <v>19.80111312848937</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.54531957863725</v>
+        <v>18.87981689337663</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.68558054054859</v>
+        <v>11.18707678869266</v>
       </c>
       <c r="E21">
-        <v>15.29834290138906</v>
+        <v>17.82122129667763</v>
       </c>
       <c r="F21">
-        <v>16.80135784624496</v>
+        <v>27.04799980418712</v>
       </c>
       <c r="G21">
-        <v>24.279774957929</v>
+        <v>25.59923415553394</v>
       </c>
       <c r="H21">
-        <v>7.84987481446105</v>
+        <v>13.22162727935977</v>
       </c>
       <c r="I21">
-        <v>14.76182103367858</v>
+        <v>24.23559610234184</v>
       </c>
       <c r="J21">
-        <v>10.4023643902654</v>
+        <v>12.2166427059825</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.91410995386901</v>
+        <v>11.92664022404021</v>
       </c>
       <c r="M21">
-        <v>20.16435118244553</v>
+        <v>17.53968137632786</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.6870205303064</v>
+        <v>19.74841921677335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.44040496900327</v>
+        <v>19.26461898893097</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.64267097203778</v>
+        <v>11.16244765065317</v>
       </c>
       <c r="E22">
-        <v>15.51599967021738</v>
+        <v>17.86244239619678</v>
       </c>
       <c r="F22">
-        <v>16.96924970459409</v>
+        <v>26.96200754841799</v>
       </c>
       <c r="G22">
-        <v>25.05139965857546</v>
+        <v>25.65178196184081</v>
       </c>
       <c r="H22">
-        <v>7.891631212938147</v>
+        <v>13.19301258647804</v>
       </c>
       <c r="I22">
-        <v>14.63540805236243</v>
+        <v>24.14044948604561</v>
       </c>
       <c r="J22">
-        <v>10.55490940018092</v>
+        <v>12.24885810372903</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.42672019273206</v>
+        <v>12.12568540542606</v>
       </c>
       <c r="M22">
-        <v>20.86219137791981</v>
+        <v>17.77949016963447</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.92297692242265</v>
+        <v>19.7190086209215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.96620994081535</v>
+        <v>19.06026692427655</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.665335050066144</v>
+        <v>11.17547389241309</v>
       </c>
       <c r="E23">
-        <v>15.39989502819599</v>
+        <v>17.84028971618139</v>
       </c>
       <c r="F23">
-        <v>16.8768737051266</v>
+        <v>27.00722692162454</v>
       </c>
       <c r="G23">
-        <v>24.63896379190772</v>
+        <v>25.62284036113407</v>
       </c>
       <c r="H23">
-        <v>7.868553280644325</v>
+        <v>13.20806643854978</v>
       </c>
       <c r="I23">
-        <v>14.70083201166605</v>
+        <v>24.1907223132526</v>
       </c>
       <c r="J23">
-        <v>10.4736035278166</v>
+        <v>12.23159376681515</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.15517304876403</v>
+        <v>12.0199000424836</v>
       </c>
       <c r="M23">
-        <v>20.49251057286835</v>
+        <v>17.65193057055576</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.79571985968972</v>
+        <v>19.73424432377765</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.0924890231159</v>
+        <v>18.26433719475778</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.756354213786111</v>
+        <v>11.22742295262111</v>
       </c>
       <c r="E24">
-        <v>14.95910992095682</v>
+        <v>17.75978175172737</v>
       </c>
       <c r="F24">
-        <v>16.58674850150749</v>
+        <v>27.19330105173251</v>
       </c>
       <c r="G24">
-        <v>23.09118721995516</v>
+        <v>25.53295248861438</v>
       </c>
       <c r="H24">
-        <v>7.798165594959003</v>
+        <v>13.26987165340842</v>
       </c>
       <c r="I24">
-        <v>14.99177732117142</v>
+        <v>24.39228634810976</v>
       </c>
       <c r="J24">
-        <v>10.16345369538056</v>
+        <v>12.1677859181736</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.08173586006468</v>
+        <v>11.60967091277116</v>
       </c>
       <c r="M24">
-        <v>19.03135909838435</v>
+        <v>17.15968391726769</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.3427306666077</v>
+        <v>19.80205897979304</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.90379376204704</v>
+        <v>17.36244963545883</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.865386361360382</v>
+        <v>11.289072241054</v>
       </c>
       <c r="E25">
-        <v>14.48355367850274</v>
+        <v>17.68048553801768</v>
       </c>
       <c r="F25">
-        <v>16.39367597326585</v>
+        <v>27.42537051468151</v>
       </c>
       <c r="G25">
-        <v>21.45925428149704</v>
+        <v>25.47831346616054</v>
       </c>
       <c r="H25">
-        <v>7.756132465951236</v>
+        <v>13.34673717703155</v>
       </c>
       <c r="I25">
-        <v>15.38720109009692</v>
+        <v>24.63348190897597</v>
       </c>
       <c r="J25">
-        <v>9.825557904710523</v>
+        <v>12.10253077902979</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.82709425161152</v>
+        <v>11.14857249525924</v>
       </c>
       <c r="M25">
-        <v>17.39264823922556</v>
+        <v>16.61140840084509</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.9152498827919</v>
+        <v>19.89666038451794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.66518678398402</v>
+        <v>20.14686738233876</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.33933034893824</v>
+        <v>6.954816868763092</v>
       </c>
       <c r="E2">
-        <v>17.62885846872599</v>
+        <v>14.13556747056288</v>
       </c>
       <c r="F2">
-        <v>27.62294620771841</v>
+        <v>16.34547674203</v>
       </c>
       <c r="G2">
-        <v>25.47447013607522</v>
+        <v>20.29847580743504</v>
       </c>
       <c r="H2">
-        <v>13.41207476211121</v>
+        <v>7.751737947122285</v>
       </c>
       <c r="I2">
-        <v>24.83148595105494</v>
+        <v>15.73893202714035</v>
       </c>
       <c r="J2">
-        <v>12.05773791558464</v>
+        <v>9.575353188046119</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.79510665838266</v>
+        <v>11.81955160446833</v>
       </c>
       <c r="M2">
-        <v>16.19514583551026</v>
+        <v>16.11037383784798</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.98460378381252</v>
+        <v>12.65166135709533</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.17437411603451</v>
+        <v>18.86520307582227</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.37644539660668</v>
+        <v>7.021051196269531</v>
       </c>
       <c r="E3">
-        <v>17.59821573736666</v>
+        <v>13.902300894548</v>
       </c>
       <c r="F3">
-        <v>27.77336721179054</v>
+        <v>16.36618802925561</v>
       </c>
       <c r="G3">
-        <v>25.49446655214466</v>
+        <v>19.542283093915</v>
       </c>
       <c r="H3">
-        <v>13.46179234910285</v>
+        <v>7.763973441030666</v>
       </c>
       <c r="I3">
-        <v>24.97839359500082</v>
+        <v>16.01084636162056</v>
       </c>
       <c r="J3">
-        <v>12.02950035231013</v>
+        <v>9.405717587161583</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.54801856234324</v>
+        <v>11.08444094968613</v>
       </c>
       <c r="M3">
-        <v>15.90648031536592</v>
+        <v>15.18089054803161</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.05552231726789</v>
+        <v>12.50383301725551</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.86494060245285</v>
+        <v>18.0334353148809</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.4007473088732</v>
+        <v>7.064470115276257</v>
       </c>
       <c r="E4">
-        <v>17.58158597191007</v>
+        <v>13.76076547281816</v>
       </c>
       <c r="F4">
-        <v>27.87383025980564</v>
+        <v>16.40335234162734</v>
       </c>
       <c r="G4">
-        <v>25.51783447980701</v>
+        <v>19.09481171542739</v>
       </c>
       <c r="H4">
-        <v>13.49499600592076</v>
+        <v>7.778533089377079</v>
       </c>
       <c r="I4">
-        <v>25.07486455153248</v>
+        <v>16.19309427948813</v>
       </c>
       <c r="J4">
-        <v>12.01323661427007</v>
+        <v>9.301815903806338</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.39301836073373</v>
+        <v>10.60736544685831</v>
       </c>
       <c r="M4">
-        <v>15.72646210000873</v>
+        <v>14.58093306679253</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.10461729050217</v>
+        <v>12.42776398422284</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.73696961883554</v>
+        <v>17.68324341189122</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.41103193706514</v>
+        <v>7.082851918710863</v>
       </c>
       <c r="E5">
-        <v>17.57536489309905</v>
+        <v>13.70357961805422</v>
       </c>
       <c r="F5">
-        <v>27.91680065858917</v>
+        <v>16.42435476252255</v>
       </c>
       <c r="G5">
-        <v>25.53013494578788</v>
+        <v>18.91697069015315</v>
       </c>
       <c r="H5">
-        <v>13.50919905606407</v>
+        <v>7.786169996798662</v>
       </c>
       <c r="I5">
-        <v>25.1157529297159</v>
+        <v>16.27103560522646</v>
       </c>
       <c r="J5">
-        <v>12.00688354943168</v>
+        <v>9.259584761025591</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.3290977722059</v>
+        <v>10.40651257380007</v>
       </c>
       <c r="M5">
-        <v>15.65247777174396</v>
+        <v>14.32920876822556</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.12601470569147</v>
+        <v>12.40037353494518</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.71561171833947</v>
+        <v>17.62441679045809</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.412762754402</v>
+        <v>7.085945674951448</v>
       </c>
       <c r="E6">
-        <v>17.57436562677066</v>
+        <v>13.69411552998544</v>
       </c>
       <c r="F6">
-        <v>27.9240583189793</v>
+        <v>16.42818738190842</v>
       </c>
       <c r="G6">
-        <v>25.53234483458089</v>
+        <v>18.88772038135094</v>
       </c>
       <c r="H6">
-        <v>13.51159804197025</v>
+        <v>7.787539001998237</v>
       </c>
       <c r="I6">
-        <v>25.12263756170648</v>
+        <v>16.28419485763089</v>
       </c>
       <c r="J6">
-        <v>12.00584533544964</v>
+        <v>9.252580279132323</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.31844021453109</v>
+        <v>10.37277311321936</v>
       </c>
       <c r="M6">
-        <v>15.6401571252749</v>
+        <v>14.28697716115289</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.1296515826426</v>
+        <v>12.39604047068179</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.8632221154598</v>
+        <v>18.02875795756699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.40088446546466</v>
+        <v>7.064715236406024</v>
       </c>
       <c r="E7">
-        <v>17.58149981427646</v>
+        <v>13.75999216937193</v>
       </c>
       <c r="F7">
-        <v>27.87440155979139</v>
+        <v>16.40361225822473</v>
       </c>
       <c r="G7">
-        <v>25.51798913713245</v>
+        <v>19.09239468345469</v>
       </c>
       <c r="H7">
-        <v>13.49518483225471</v>
+        <v>7.778629275337426</v>
       </c>
       <c r="I7">
-        <v>25.07540960752341</v>
+        <v>16.19413076417018</v>
       </c>
       <c r="J7">
-        <v>12.01314981729781</v>
+        <v>9.301245855217458</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.39215927439491</v>
+        <v>10.60468270977826</v>
       </c>
       <c r="M7">
-        <v>15.72546675613379</v>
+        <v>14.57756734606359</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.10490023890187</v>
+        <v>12.4273801032026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.49771957054795</v>
+        <v>19.71426397440461</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.35181411855682</v>
+        <v>6.977081382431577</v>
       </c>
       <c r="E8">
-        <v>17.61784319011556</v>
+        <v>14.05482541922928</v>
       </c>
       <c r="F8">
-        <v>27.67312525254807</v>
+        <v>16.34737213889769</v>
       </c>
       <c r="G8">
-        <v>25.47905746717138</v>
+        <v>20.03441266762519</v>
       </c>
       <c r="H8">
-        <v>13.42866131275197</v>
+        <v>7.754453131229051</v>
       </c>
       <c r="I8">
-        <v>24.88083810185284</v>
+        <v>15.82940673831395</v>
       </c>
       <c r="J8">
-        <v>12.04778133424549</v>
+        <v>9.516836803931874</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.71063364414251</v>
+        <v>11.57143373667991</v>
       </c>
       <c r="M8">
-        <v>16.09623308239618</v>
+        <v>15.79602071054532</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.0079015346274</v>
+        <v>12.59759116620937</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.67170637807492</v>
+        <v>22.66357999732883</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.26755223052</v>
+        <v>6.82722562782601</v>
       </c>
       <c r="E9">
-        <v>17.70616449609591</v>
+        <v>14.64356603355451</v>
       </c>
       <c r="F9">
-        <v>27.34303140222436</v>
+        <v>16.44346262279077</v>
       </c>
       <c r="G9">
-        <v>25.49106017480511</v>
+        <v>22.00325723496797</v>
       </c>
       <c r="H9">
-        <v>13.31948492779786</v>
+        <v>7.765989624350721</v>
       </c>
       <c r="I9">
-        <v>24.54906162372647</v>
+        <v>15.24398505856737</v>
       </c>
       <c r="J9">
-        <v>12.12401865041901</v>
+        <v>9.939701405972778</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.30620805988894</v>
+        <v>13.26270930452234</v>
       </c>
       <c r="M9">
-        <v>16.7982108740103</v>
+        <v>17.94957349682883</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.86194142331031</v>
+        <v>13.0511830292856</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.48395346465076</v>
+        <v>24.61417441578631</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.21288269939104</v>
+        <v>6.730786018869344</v>
       </c>
       <c r="E10">
-        <v>17.78105286292928</v>
+        <v>15.07885731868424</v>
       </c>
       <c r="F10">
-        <v>27.14031595821703</v>
+        <v>16.65567543987898</v>
       </c>
       <c r="G10">
-        <v>25.55402484776882</v>
+        <v>23.5086771779849</v>
       </c>
       <c r="H10">
-        <v>13.25229230421684</v>
+        <v>7.814485075217882</v>
       </c>
       <c r="I10">
-        <v>24.3357040568023</v>
+        <v>14.90590297752964</v>
       </c>
       <c r="J10">
-        <v>12.1848325357228</v>
+        <v>10.2479636977838</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.72256834979141</v>
+        <v>14.38067251327191</v>
       </c>
       <c r="M10">
-        <v>17.29475568649626</v>
+        <v>19.43824095874569</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.78195725524263</v>
+        <v>13.46082430422321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.84121095189112</v>
+        <v>25.45499622586361</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.18957178987219</v>
+        <v>6.689940748034132</v>
       </c>
       <c r="E11">
-        <v>17.81720264631264</v>
+        <v>15.27673695790606</v>
       </c>
       <c r="F11">
-        <v>27.05682744199318</v>
+        <v>16.78594095961436</v>
       </c>
       <c r="G11">
-        <v>25.5944246012327</v>
+        <v>24.20354700417437</v>
       </c>
       <c r="H11">
-        <v>13.22456182754242</v>
+        <v>7.846085720777175</v>
       </c>
       <c r="I11">
-        <v>24.24525675141362</v>
+        <v>14.7752551189218</v>
       </c>
       <c r="J11">
-        <v>12.2134802879432</v>
+        <v>10.38719211690238</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.90670687099754</v>
+        <v>14.86237281116604</v>
       </c>
       <c r="M11">
-        <v>17.51571481753188</v>
+        <v>20.09392370724418</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.75154106048748</v>
+        <v>13.66421627152387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.97463877664989</v>
+        <v>25.76674831572578</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.18096775571715</v>
+        <v>6.674914538673208</v>
       </c>
       <c r="E12">
-        <v>17.83118305572185</v>
+        <v>15.35159098202386</v>
       </c>
       <c r="F12">
-        <v>27.02647489980705</v>
+        <v>16.84033034310673</v>
       </c>
       <c r="G12">
-        <v>25.61140842717722</v>
+        <v>24.46792890413307</v>
       </c>
       <c r="H12">
-        <v>13.21446964307589</v>
+        <v>7.859491105474145</v>
       </c>
       <c r="I12">
-        <v>24.21195875207096</v>
+        <v>14.72940058069699</v>
       </c>
       <c r="J12">
-        <v>12.22446444195231</v>
+        <v>10.43973298294495</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.97562784204798</v>
+        <v>15.04093696420264</v>
       </c>
       <c r="M12">
-        <v>17.59861930517901</v>
+        <v>20.33699859304656</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.74088543657532</v>
+        <v>13.74370728021201</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.94598678488108</v>
+        <v>25.69990192408549</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.18281086991525</v>
+        <v>6.678130988414709</v>
       </c>
       <c r="E13">
-        <v>17.82815930347545</v>
+        <v>15.33547423296204</v>
       </c>
       <c r="F13">
-        <v>27.03295557992372</v>
+        <v>16.82838846966849</v>
       </c>
       <c r="G13">
-        <v>25.60767581920236</v>
+        <v>24.41093668164402</v>
       </c>
       <c r="H13">
-        <v>13.21662498144733</v>
+        <v>7.856538973809625</v>
       </c>
       <c r="I13">
-        <v>24.21908768070349</v>
+        <v>14.73911037765419</v>
       </c>
       <c r="J13">
-        <v>12.22209285392112</v>
+        <v>10.42842603276519</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.96082119584366</v>
+        <v>15.00265066125047</v>
       </c>
       <c r="M13">
-        <v>17.58079941576025</v>
+        <v>20.28487958658869</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.74314190357184</v>
+        <v>13.72647734622677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.85222589744287</v>
+        <v>25.48077725730592</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.18885946014785</v>
+        <v>6.688695658676859</v>
       </c>
       <c r="E14">
-        <v>17.81834703343414</v>
+        <v>15.28289714700966</v>
       </c>
       <c r="F14">
-        <v>27.05430496887427</v>
+        <v>16.79031307122193</v>
       </c>
       <c r="G14">
-        <v>25.5957881360616</v>
+        <v>24.22527380824116</v>
       </c>
       <c r="H14">
-        <v>13.22372334016143</v>
+        <v>7.847159374982845</v>
       </c>
       <c r="I14">
-        <v>24.2424982054641</v>
+        <v>14.77140837210713</v>
       </c>
       <c r="J14">
-        <v>12.21438126981667</v>
+        <v>10.39151853890023</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.91239351790142</v>
+        <v>14.87714033651915</v>
       </c>
       <c r="M14">
-        <v>17.52255114257824</v>
+        <v>20.11402600336539</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.75064711187716</v>
+        <v>13.67070643986336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.79454997127401</v>
+        <v>25.34569249827573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.1925934527126</v>
+        <v>6.695224440402665</v>
       </c>
       <c r="E15">
-        <v>17.81237441876082</v>
+        <v>15.25068021948356</v>
       </c>
       <c r="F15">
-        <v>27.06754676043667</v>
+        <v>16.76765563845339</v>
       </c>
       <c r="G15">
-        <v>25.58872585401941</v>
+        <v>24.11170749895128</v>
       </c>
       <c r="H15">
-        <v>13.22812454868831</v>
+        <v>7.841603444478023</v>
       </c>
       <c r="I15">
-        <v>24.25696192124444</v>
+        <v>14.79167209460623</v>
       </c>
       <c r="J15">
-        <v>12.20967523082751</v>
+        <v>10.36888686375634</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.88262345869171</v>
+        <v>14.79976148567868</v>
       </c>
       <c r="M15">
-        <v>17.48677065834127</v>
+        <v>20.00869473052614</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.75535668206669</v>
+        <v>13.63686737941814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.46035096845531</v>
+        <v>24.55829198134677</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.2144374140974</v>
+        <v>6.733516732772321</v>
       </c>
       <c r="E16">
-        <v>17.77873160179156</v>
+        <v>15.0659175458044</v>
       </c>
       <c r="F16">
-        <v>27.14594841426118</v>
+        <v>16.64785957801919</v>
       </c>
       <c r="G16">
-        <v>25.55162082462491</v>
+        <v>23.46345052499689</v>
       </c>
       <c r="H16">
-        <v>13.25416170217443</v>
+        <v>7.812617645126532</v>
       </c>
       <c r="I16">
-        <v>24.34174817352372</v>
+        <v>14.91493125904307</v>
       </c>
       <c r="J16">
-        <v>12.18297965393651</v>
+        <v>10.23884133932101</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.7104240416388</v>
+        <v>14.34865307650499</v>
       </c>
       <c r="M16">
-        <v>17.28021122379683</v>
+        <v>19.39465856637126</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.78406548580448</v>
+        <v>13.44787703852087</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.25212316549113</v>
+        <v>24.06335982891028</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.22823657342457</v>
+        <v>6.757786818842732</v>
       </c>
       <c r="E17">
-        <v>17.7586204821579</v>
+        <v>14.95249358372261</v>
       </c>
       <c r="F17">
-        <v>27.19628618260119</v>
+        <v>16.58316528004019</v>
       </c>
       <c r="G17">
-        <v>25.53186651834469</v>
+        <v>23.06818968056412</v>
       </c>
       <c r="H17">
-        <v>13.27086165760743</v>
+        <v>7.797327534935691</v>
       </c>
       <c r="I17">
-        <v>24.3954561206093</v>
+        <v>14.99667541670632</v>
       </c>
       <c r="J17">
-        <v>12.16685072191037</v>
+        <v>10.15877829635153</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.60339890767324</v>
+        <v>14.06504279382021</v>
       </c>
       <c r="M17">
-        <v>17.15218919270428</v>
+        <v>19.00863867552751</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.80320916014979</v>
+        <v>13.33632005516625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.13120932787215</v>
+        <v>23.77430697994355</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.23632022973467</v>
+        <v>6.772030731478068</v>
       </c>
       <c r="E18">
-        <v>17.7472496383475</v>
+        <v>14.88724560222331</v>
       </c>
       <c r="F18">
-        <v>27.22606017649036</v>
+        <v>16.54911854277068</v>
       </c>
       <c r="G18">
-        <v>25.52161148713657</v>
+        <v>22.84180136678266</v>
       </c>
       <c r="H18">
-        <v>13.28073389160713</v>
+        <v>7.789427106743756</v>
       </c>
       <c r="I18">
-        <v>24.4269695656227</v>
+        <v>15.04585255386856</v>
       </c>
       <c r="J18">
-        <v>12.15766666885814</v>
+        <v>10.11263597735383</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.54134801951551</v>
+        <v>13.89938741682043</v>
       </c>
       <c r="M18">
-        <v>17.07809444102746</v>
+        <v>18.78317241522645</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.81478170824224</v>
+        <v>13.27375914829529</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.09007619280171</v>
+        <v>23.67568513500175</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.2390824453543</v>
+        <v>6.776902148299917</v>
       </c>
       <c r="E19">
-        <v>17.74343366833153</v>
+        <v>14.86515397609132</v>
       </c>
       <c r="F19">
-        <v>27.23628191785981</v>
+        <v>16.53812743554497</v>
       </c>
       <c r="G19">
-        <v>25.51832956931132</v>
+        <v>22.76532073750893</v>
       </c>
       <c r="H19">
-        <v>13.28412226438943</v>
+        <v>7.786903632696486</v>
       </c>
       <c r="I19">
-        <v>24.43774625903788</v>
+        <v>15.06286557057887</v>
       </c>
       <c r="J19">
-        <v>12.15457322489722</v>
+        <v>10.09699834711961</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.52025562960559</v>
+        <v>13.84286430812506</v>
       </c>
       <c r="M19">
-        <v>17.05293014185183</v>
+        <v>18.70624212077051</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.81879630458083</v>
+        <v>13.25285178601849</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.27440879479165</v>
+        <v>24.11649935141964</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.22675244773913</v>
+        <v>6.755173750797741</v>
       </c>
       <c r="E20">
-        <v>17.76074106273501</v>
+        <v>14.96456918176955</v>
       </c>
       <c r="F20">
-        <v>27.19084261050681</v>
+        <v>16.58972305884213</v>
       </c>
       <c r="G20">
-        <v>25.53385484326788</v>
+        <v>23.11016852649982</v>
       </c>
       <c r="H20">
-        <v>13.26905629263626</v>
+        <v>7.7988621712794</v>
       </c>
       <c r="I20">
-        <v>24.38967442424051</v>
+        <v>14.98774801587963</v>
       </c>
       <c r="J20">
-        <v>12.16855810086758</v>
+        <v>10.167310966429</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.61484330830185</v>
+        <v>14.09549534701935</v>
       </c>
       <c r="M20">
-        <v>17.16586539827303</v>
+        <v>19.05008674931423</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.80111312848937</v>
+        <v>13.34802933542166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.87981689337663</v>
+        <v>25.54531957863727</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.18707678869266</v>
+        <v>6.685580540548447</v>
       </c>
       <c r="E21">
-        <v>17.82122129667763</v>
+        <v>15.29834290138891</v>
       </c>
       <c r="F21">
-        <v>27.04799980418712</v>
+        <v>16.80135784624504</v>
       </c>
       <c r="G21">
-        <v>25.59923415553394</v>
+        <v>24.27977495792911</v>
       </c>
       <c r="H21">
-        <v>13.22162727935977</v>
+        <v>7.849874814461098</v>
       </c>
       <c r="I21">
-        <v>24.23559610234184</v>
+        <v>14.76182103367852</v>
       </c>
       <c r="J21">
-        <v>12.2166427059825</v>
+        <v>10.40236439026532</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.92664022404021</v>
+        <v>14.91410995386899</v>
       </c>
       <c r="M21">
-        <v>17.53968137632786</v>
+        <v>20.16435118244555</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.74841921677335</v>
+        <v>13.68702053030646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.26461898893097</v>
+        <v>26.44040496900325</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.16244765065317</v>
+        <v>6.642670972037845</v>
       </c>
       <c r="E22">
-        <v>17.86244239619678</v>
+        <v>15.51599967021741</v>
       </c>
       <c r="F22">
-        <v>26.96200754841799</v>
+        <v>16.96924970459408</v>
       </c>
       <c r="G22">
-        <v>25.65178196184081</v>
+        <v>25.05139965857546</v>
       </c>
       <c r="H22">
-        <v>13.19301258647804</v>
+        <v>7.891631212938139</v>
       </c>
       <c r="I22">
-        <v>24.14044948604561</v>
+        <v>14.63540805236239</v>
       </c>
       <c r="J22">
-        <v>12.24885810372903</v>
+        <v>10.55490940018091</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.12568540542606</v>
+        <v>15.42672019273204</v>
       </c>
       <c r="M22">
-        <v>17.77949016963447</v>
+        <v>20.8621913779198</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.7190086209215</v>
+        <v>13.92297692242263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.06026692427655</v>
+        <v>25.96620994081536</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.17547389241309</v>
+        <v>6.665335050066091</v>
       </c>
       <c r="E23">
-        <v>17.84028971618139</v>
+        <v>15.39989502819608</v>
       </c>
       <c r="F23">
-        <v>27.00722692162454</v>
+        <v>16.87687370512658</v>
       </c>
       <c r="G23">
-        <v>25.62284036113407</v>
+        <v>24.63896379190772</v>
       </c>
       <c r="H23">
-        <v>13.20806643854978</v>
+        <v>7.868553280644325</v>
       </c>
       <c r="I23">
-        <v>24.1907223132526</v>
+        <v>14.70083201166615</v>
       </c>
       <c r="J23">
-        <v>12.23159376681515</v>
+        <v>10.47360352781672</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.0199000424836</v>
+        <v>15.155173048764</v>
       </c>
       <c r="M23">
-        <v>17.65193057055576</v>
+        <v>20.49251057286833</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.73424432377765</v>
+        <v>13.79571985968973</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.26433719475778</v>
+        <v>24.09248902311588</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.22742295262111</v>
+        <v>6.756354213786111</v>
       </c>
       <c r="E24">
-        <v>17.75978175172737</v>
+        <v>14.95910992095686</v>
       </c>
       <c r="F24">
-        <v>27.19330105173251</v>
+        <v>16.58674850150751</v>
       </c>
       <c r="G24">
-        <v>25.53295248861438</v>
+        <v>23.09118721995521</v>
       </c>
       <c r="H24">
-        <v>13.26987165340842</v>
+        <v>7.798165594959042</v>
       </c>
       <c r="I24">
-        <v>24.39228634810976</v>
+        <v>14.99177732117139</v>
       </c>
       <c r="J24">
-        <v>12.1677859181736</v>
+        <v>10.16345369538061</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.60967091277116</v>
+        <v>14.08173586006466</v>
       </c>
       <c r="M24">
-        <v>17.15968391726769</v>
+        <v>19.03135909838432</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.80205897979304</v>
+        <v>13.34273066660772</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.36244963545883</v>
+        <v>21.90379376204706</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.289072241054</v>
+        <v>6.865386361360118</v>
       </c>
       <c r="E25">
-        <v>17.68048553801768</v>
+        <v>14.48355367850261</v>
       </c>
       <c r="F25">
-        <v>27.42537051468151</v>
+        <v>16.39367597326585</v>
       </c>
       <c r="G25">
-        <v>25.47831346616054</v>
+        <v>21.4592542814971</v>
       </c>
       <c r="H25">
-        <v>13.34673717703155</v>
+        <v>7.75613246595128</v>
       </c>
       <c r="I25">
-        <v>24.63348190897597</v>
+        <v>15.38720109009685</v>
       </c>
       <c r="J25">
-        <v>12.10253077902979</v>
+        <v>9.825557904710514</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.14857249525924</v>
+        <v>12.82709425161147</v>
       </c>
       <c r="M25">
-        <v>16.61140840084509</v>
+        <v>17.39264823922555</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.89666038451794</v>
+        <v>12.91524988279195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.14686738233876</v>
+        <v>8.499863411410869</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.954816868763092</v>
+        <v>3.313741827892755</v>
       </c>
       <c r="E2">
-        <v>14.13556747056288</v>
+        <v>16.18562664628432</v>
       </c>
       <c r="F2">
-        <v>16.34547674203</v>
+        <v>40.77701316780077</v>
       </c>
       <c r="G2">
-        <v>20.29847580743504</v>
+        <v>64.46873534732948</v>
       </c>
       <c r="H2">
-        <v>7.751737947122285</v>
+        <v>4.070374369350361</v>
       </c>
       <c r="I2">
-        <v>15.73893202714035</v>
+        <v>3.384694172778727</v>
       </c>
       <c r="J2">
-        <v>9.575353188046119</v>
+        <v>16.15036272824016</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.30317083822928</v>
       </c>
       <c r="L2">
-        <v>11.81955160446833</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.11037383784798</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.65166135709533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>29.47518549498137</v>
+      </c>
+      <c r="P2">
+        <v>14.55495030654095</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.86520307582227</v>
+        <v>8.002001435992138</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.021051196269531</v>
+        <v>3.165029926852465</v>
       </c>
       <c r="E3">
-        <v>13.902300894548</v>
+        <v>15.50565536056099</v>
       </c>
       <c r="F3">
-        <v>16.36618802925561</v>
+        <v>37.8700131511535</v>
       </c>
       <c r="G3">
-        <v>19.542283093915</v>
+        <v>59.86112528773587</v>
       </c>
       <c r="H3">
-        <v>7.763973441030666</v>
+        <v>3.701528590974822</v>
       </c>
       <c r="I3">
-        <v>16.01084636162056</v>
+        <v>3.452535780044081</v>
       </c>
       <c r="J3">
-        <v>9.405717587161583</v>
+        <v>15.1832860733427</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.32690181947142</v>
       </c>
       <c r="L3">
-        <v>11.08444094968613</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.18089054803161</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.50383301725551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.4942353668892</v>
+      </c>
+      <c r="P3">
+        <v>14.36129708141931</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0334353148809</v>
+        <v>7.67464955635163</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.064470115276257</v>
+        <v>3.072074086076821</v>
       </c>
       <c r="E4">
-        <v>13.76076547281816</v>
+        <v>15.08151952455735</v>
       </c>
       <c r="F4">
-        <v>16.40335234162734</v>
+        <v>36.04259839107524</v>
       </c>
       <c r="G4">
-        <v>19.09481171542739</v>
+        <v>56.90177614105713</v>
       </c>
       <c r="H4">
-        <v>7.778533089377079</v>
+        <v>3.470175078068395</v>
       </c>
       <c r="I4">
-        <v>16.19309427948813</v>
+        <v>3.496141868427847</v>
       </c>
       <c r="J4">
-        <v>9.301815903806338</v>
+        <v>14.57181029524657</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.34887075452556</v>
       </c>
       <c r="L4">
-        <v>10.60736544685831</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.58093306679253</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.42776398422284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>26.21311194572922</v>
+      </c>
+      <c r="P4">
+        <v>14.24466661304668</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68324341189122</v>
+        <v>7.523813817326505</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.082851918710863</v>
+        <v>3.033265764954735</v>
       </c>
       <c r="E5">
-        <v>13.70357961805422</v>
+        <v>14.90603623256736</v>
       </c>
       <c r="F5">
-        <v>16.42435476252255</v>
+        <v>35.30169208105664</v>
       </c>
       <c r="G5">
-        <v>18.91697069015315</v>
+        <v>55.65864863489745</v>
       </c>
       <c r="H5">
-        <v>7.786169996798662</v>
+        <v>3.374641476262014</v>
       </c>
       <c r="I5">
-        <v>16.27103560522646</v>
+        <v>3.5171884914813</v>
       </c>
       <c r="J5">
-        <v>9.259584761025591</v>
+        <v>14.31733013597698</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.36623492061945</v>
       </c>
       <c r="L5">
-        <v>10.40651257380007</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.32920876822556</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.40037353494518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>25.68037021427511</v>
+      </c>
+      <c r="P5">
+        <v>14.2024390545992</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.62441679045809</v>
+        <v>7.483711384506102</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.085945674951448</v>
+        <v>3.026151599012467</v>
       </c>
       <c r="E6">
-        <v>13.69411552998544</v>
+        <v>14.87589744698082</v>
       </c>
       <c r="F6">
-        <v>16.42818738190842</v>
+        <v>35.17480874492831</v>
       </c>
       <c r="G6">
-        <v>18.88772038135094</v>
+        <v>55.44537476350156</v>
       </c>
       <c r="H6">
-        <v>7.787539001998237</v>
+        <v>3.35877047596884</v>
       </c>
       <c r="I6">
-        <v>16.28419485763089</v>
+        <v>3.524267939695095</v>
       </c>
       <c r="J6">
-        <v>9.252580279132323</v>
+        <v>14.27363398565241</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.37733967861364</v>
       </c>
       <c r="L6">
-        <v>10.37277311321936</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.28697716115289</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39604047068179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>25.59792208309912</v>
+      </c>
+      <c r="P6">
+        <v>14.20121521040708</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.02875795756699</v>
+        <v>7.633279637787638</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.064715236406024</v>
+        <v>3.069817064405317</v>
       </c>
       <c r="E7">
-        <v>13.75999216937193</v>
+        <v>15.07679975553748</v>
       </c>
       <c r="F7">
-        <v>16.40361225822473</v>
+        <v>36.02523388243365</v>
       </c>
       <c r="G7">
-        <v>19.09239468345469</v>
+        <v>56.87230030786068</v>
       </c>
       <c r="H7">
-        <v>7.778629275337426</v>
+        <v>3.469099791182814</v>
       </c>
       <c r="I7">
-        <v>16.19413076417018</v>
+        <v>3.505780437841481</v>
       </c>
       <c r="J7">
-        <v>9.301245855217458</v>
+        <v>14.56523912841266</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.37144412178811</v>
       </c>
       <c r="L7">
-        <v>10.60468270977826</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.57756734606359</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.4273801032026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>26.22464619374663</v>
+      </c>
+      <c r="P7">
+        <v>14.25986176160075</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.71426397440461</v>
+        <v>8.284398585657406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.977081382431577</v>
+        <v>3.260654323676065</v>
       </c>
       <c r="E8">
-        <v>14.05482541922928</v>
+        <v>15.94939882200163</v>
       </c>
       <c r="F8">
-        <v>16.34737213889769</v>
+        <v>39.78252529976994</v>
       </c>
       <c r="G8">
-        <v>20.03441266762519</v>
+        <v>62.89126582304543</v>
       </c>
       <c r="H8">
-        <v>7.754453131229051</v>
+        <v>3.944451450073964</v>
       </c>
       <c r="I8">
-        <v>15.82940673831395</v>
+        <v>3.419350223381792</v>
       </c>
       <c r="J8">
-        <v>9.516836803931874</v>
+        <v>15.81677902754794</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.3403693141399</v>
       </c>
       <c r="L8">
-        <v>11.57143373667991</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.79602071054532</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.59759116620937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>28.82819633302654</v>
+      </c>
+      <c r="P8">
+        <v>14.50884288596057</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.66357999732883</v>
+        <v>9.450748151744971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.82722562782601</v>
+        <v>3.666874579791394</v>
       </c>
       <c r="E9">
-        <v>14.64356603355451</v>
+        <v>17.6249972217256</v>
       </c>
       <c r="F9">
-        <v>16.44346262279077</v>
+        <v>46.60816297078181</v>
       </c>
       <c r="G9">
-        <v>22.00325723496797</v>
+        <v>73.70746320331767</v>
       </c>
       <c r="H9">
-        <v>7.765989624350721</v>
+        <v>4.841892988234972</v>
       </c>
       <c r="I9">
-        <v>15.24398505856737</v>
+        <v>3.250012280005415</v>
       </c>
       <c r="J9">
-        <v>9.939701405972778</v>
+        <v>18.37247671796217</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.29761498773182</v>
       </c>
       <c r="L9">
-        <v>13.26270930452234</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.94957349682883</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.0511830292856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>33.39605062898966</v>
+      </c>
+      <c r="P9">
+        <v>14.98445855889504</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.61417441578631</v>
+        <v>10.20208450586895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.730786018869344</v>
+        <v>3.963970630469783</v>
       </c>
       <c r="E10">
-        <v>15.07885731868424</v>
+        <v>18.86139870916994</v>
       </c>
       <c r="F10">
-        <v>16.65567543987898</v>
+        <v>51.04593326235391</v>
       </c>
       <c r="G10">
-        <v>23.5086771779849</v>
+        <v>80.70455915644594</v>
       </c>
       <c r="H10">
-        <v>7.814485075217882</v>
+        <v>5.452578611978965</v>
       </c>
       <c r="I10">
-        <v>14.90590297752964</v>
+        <v>3.141996774720206</v>
       </c>
       <c r="J10">
-        <v>10.2479636977838</v>
+        <v>20.10642816654489</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.35419183218571</v>
       </c>
       <c r="L10">
-        <v>14.38067251327191</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.43824095874569</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.46082430422321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>36.11629633022437</v>
+      </c>
+      <c r="P10">
+        <v>15.39306889004414</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.45499622586361</v>
+        <v>10.62569910545455</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.689940748034132</v>
+        <v>3.703844852641057</v>
       </c>
       <c r="E11">
-        <v>15.27673695790606</v>
+        <v>20.18885863097286</v>
       </c>
       <c r="F11">
-        <v>16.78594095961436</v>
+        <v>51.14291963227004</v>
       </c>
       <c r="G11">
-        <v>24.20354700417437</v>
+        <v>80.56595935878438</v>
       </c>
       <c r="H11">
-        <v>7.846085720777175</v>
+        <v>5.818304902876225</v>
       </c>
       <c r="I11">
-        <v>14.7752551189218</v>
+        <v>3.13086567639333</v>
       </c>
       <c r="J11">
-        <v>10.38719211690238</v>
+        <v>20.06300924649686</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.77921422210439</v>
       </c>
       <c r="L11">
-        <v>14.86237281116604</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.09392370724418</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.66421627152387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>34.38729581525768</v>
+      </c>
+      <c r="P11">
+        <v>16.00024402972442</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.76674831572578</v>
+        <v>10.88251523605953</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.674914538673208</v>
+        <v>3.439268442679983</v>
       </c>
       <c r="E12">
-        <v>15.35159098202386</v>
+        <v>21.85932604498157</v>
       </c>
       <c r="F12">
-        <v>16.84033034310673</v>
+        <v>50.31903042877204</v>
       </c>
       <c r="G12">
-        <v>24.46792890413307</v>
+        <v>79.02317951565547</v>
       </c>
       <c r="H12">
-        <v>7.859491105474145</v>
+        <v>6.472843540031707</v>
       </c>
       <c r="I12">
-        <v>14.72940058069699</v>
+        <v>3.126510576686135</v>
       </c>
       <c r="J12">
-        <v>10.43973298294495</v>
+        <v>19.67222555115614</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.10515418924544</v>
       </c>
       <c r="L12">
-        <v>15.04093696420264</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.33699859304656</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.74370728021201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>32.34212906364776</v>
+      </c>
+      <c r="P12">
+        <v>16.41466954895042</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.69990192408549</v>
+        <v>10.98829474908267</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.678130988414709</v>
+        <v>3.149065709539147</v>
       </c>
       <c r="E13">
-        <v>15.33547423296204</v>
+        <v>23.74753707668692</v>
       </c>
       <c r="F13">
-        <v>16.82838846966849</v>
+        <v>48.6924244102448</v>
       </c>
       <c r="G13">
-        <v>24.41093668164402</v>
+        <v>76.2272201436972</v>
       </c>
       <c r="H13">
-        <v>7.856538973809625</v>
+        <v>7.297529104147893</v>
       </c>
       <c r="I13">
-        <v>14.73911037765419</v>
+        <v>3.141133804619813</v>
       </c>
       <c r="J13">
-        <v>10.42842603276519</v>
+        <v>18.97040402272833</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.40438947167694</v>
       </c>
       <c r="L13">
-        <v>15.00265066125047</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.28487958658869</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.72647734622677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>29.89546554922541</v>
+      </c>
+      <c r="P13">
+        <v>16.72860581653661</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.48077725730592</v>
+        <v>10.98676604266056</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.688695658676859</v>
+        <v>2.936277641215133</v>
       </c>
       <c r="E14">
-        <v>15.28289714700966</v>
+        <v>25.20127777491449</v>
       </c>
       <c r="F14">
-        <v>16.79031307122193</v>
+        <v>47.16864255716387</v>
       </c>
       <c r="G14">
-        <v>24.22527380824116</v>
+        <v>73.66491415381955</v>
       </c>
       <c r="H14">
-        <v>7.847159374982845</v>
+        <v>7.961548804383842</v>
       </c>
       <c r="I14">
-        <v>14.77140837210713</v>
+        <v>3.162527244830728</v>
       </c>
       <c r="J14">
-        <v>10.39151853890023</v>
+        <v>18.3287185343669</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.61044649174486</v>
       </c>
       <c r="L14">
-        <v>14.87714033651915</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.11402600336539</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.67070643986336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27.97812416083917</v>
+      </c>
+      <c r="P14">
+        <v>16.90887773199561</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.34569249827573</v>
+        <v>10.94145502486473</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.695224440402665</v>
+        <v>2.875870525548454</v>
       </c>
       <c r="E15">
-        <v>15.25068021948356</v>
+        <v>25.51456877521909</v>
       </c>
       <c r="F15">
-        <v>16.76765563845339</v>
+        <v>46.61643868490061</v>
       </c>
       <c r="G15">
-        <v>24.11170749895128</v>
+        <v>72.75644672758003</v>
       </c>
       <c r="H15">
-        <v>7.841603444478023</v>
+        <v>8.108992318805269</v>
       </c>
       <c r="I15">
-        <v>14.79167209460623</v>
+        <v>3.176129430147935</v>
       </c>
       <c r="J15">
-        <v>10.36888686375634</v>
+        <v>18.10189954575496</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.66429622217861</v>
       </c>
       <c r="L15">
-        <v>14.79976148567868</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.00869473052614</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.63686737941814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>27.42288603617358</v>
+      </c>
+      <c r="P15">
+        <v>16.93669575093213</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.55829198134677</v>
+        <v>10.6031544990446</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.733516732772321</v>
+        <v>2.786381607021913</v>
       </c>
       <c r="E16">
-        <v>15.0659175458044</v>
+        <v>24.69376922617097</v>
       </c>
       <c r="F16">
-        <v>16.64785957801919</v>
+        <v>44.95976419937342</v>
       </c>
       <c r="G16">
-        <v>23.46345052499689</v>
+        <v>70.16761792166965</v>
       </c>
       <c r="H16">
-        <v>7.812617645126532</v>
+        <v>7.772932912991018</v>
       </c>
       <c r="I16">
-        <v>14.91493125904307</v>
+        <v>3.224562141278176</v>
       </c>
       <c r="J16">
-        <v>10.23884133932101</v>
+        <v>17.46108615934063</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.57510264542176</v>
       </c>
       <c r="L16">
-        <v>14.34865307650499</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.39465856637126</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.44787703852087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>26.62198381274336</v>
+      </c>
+      <c r="P16">
+        <v>16.70452088441609</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.06335982891028</v>
+        <v>10.33642748697374</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.757786818842732</v>
+        <v>2.832957727039783</v>
       </c>
       <c r="E17">
-        <v>14.95249358372261</v>
+        <v>23.20058898428922</v>
       </c>
       <c r="F17">
-        <v>16.58316528004019</v>
+        <v>44.52406025370745</v>
       </c>
       <c r="G17">
-        <v>23.06818968056412</v>
+        <v>69.58945508574395</v>
       </c>
       <c r="H17">
-        <v>7.797327534935691</v>
+        <v>7.107157329419264</v>
       </c>
       <c r="I17">
-        <v>14.99667541670632</v>
+        <v>3.251181551038496</v>
       </c>
       <c r="J17">
-        <v>10.15877829635153</v>
+        <v>17.32233266414422</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.39978642893664</v>
       </c>
       <c r="L17">
-        <v>14.06504279382021</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.00863867552751</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.33632005516625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>27.06649225679168</v>
+      </c>
+      <c r="P17">
+        <v>16.42955087515717</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.77430697994355</v>
+        <v>10.13471463432684</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.772030731478068</v>
+        <v>3.01821502368605</v>
       </c>
       <c r="E18">
-        <v>14.88724560222331</v>
+        <v>21.17757760884709</v>
       </c>
       <c r="F18">
-        <v>16.54911854277068</v>
+        <v>45.11749135827737</v>
       </c>
       <c r="G18">
-        <v>22.84180136678266</v>
+        <v>70.72275179819503</v>
       </c>
       <c r="H18">
-        <v>7.789427106743756</v>
+        <v>6.184831473347241</v>
       </c>
       <c r="I18">
-        <v>15.04585255386856</v>
+        <v>3.251490083334339</v>
       </c>
       <c r="J18">
-        <v>10.11263597735383</v>
+        <v>17.61099676565015</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.11129648170238</v>
       </c>
       <c r="L18">
-        <v>13.89938741682043</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.78317241522645</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.27375914829529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>28.64763739669157</v>
+      </c>
+      <c r="P18">
+        <v>16.07633276191227</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.67568513500175</v>
+        <v>9.946117266850813</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.776902148299917</v>
+        <v>3.314183619494539</v>
       </c>
       <c r="E19">
-        <v>14.86515397609132</v>
+        <v>19.36772344755037</v>
       </c>
       <c r="F19">
-        <v>16.53812743554497</v>
+        <v>46.47979032149006</v>
       </c>
       <c r="G19">
-        <v>22.76532073750893</v>
+        <v>73.12218257468041</v>
       </c>
       <c r="H19">
-        <v>7.786903632696486</v>
+        <v>5.390040169120916</v>
       </c>
       <c r="I19">
-        <v>15.06286557057887</v>
+        <v>3.247950794112654</v>
       </c>
       <c r="J19">
-        <v>10.09699834711961</v>
+        <v>18.21472767149901</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.81964089474462</v>
       </c>
       <c r="L19">
-        <v>13.84286430812506</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.70624212077051</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.25285178601849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>31.0441588530454</v>
+      </c>
+      <c r="P19">
+        <v>15.72712484292863</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.11649935141964</v>
+        <v>9.917244283387589</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.755173750797741</v>
+        <v>3.881360052661591</v>
       </c>
       <c r="E20">
-        <v>14.96456918176955</v>
+        <v>18.52957396000124</v>
       </c>
       <c r="F20">
-        <v>16.58972305884213</v>
+        <v>49.87447270865412</v>
       </c>
       <c r="G20">
-        <v>23.11016852649982</v>
+        <v>78.85314029578424</v>
       </c>
       <c r="H20">
-        <v>7.7988621712794</v>
+        <v>5.291390655762608</v>
       </c>
       <c r="I20">
-        <v>14.98774801587963</v>
+        <v>3.199077227904453</v>
       </c>
       <c r="J20">
-        <v>10.167310966429</v>
+        <v>19.64730350109963</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.41614669563535</v>
       </c>
       <c r="L20">
-        <v>14.09549534701935</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.05008674931423</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.34802933542166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35.44718429522155</v>
+      </c>
+      <c r="P20">
+        <v>15.33767100448065</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.54531957863727</v>
+        <v>10.45812117307175</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.685580540548447</v>
+        <v>4.176776778914228</v>
       </c>
       <c r="E21">
-        <v>15.29834290138891</v>
+        <v>19.47176417124015</v>
       </c>
       <c r="F21">
-        <v>16.80135784624504</v>
+        <v>53.52007465643152</v>
       </c>
       <c r="G21">
-        <v>24.27977495792911</v>
+        <v>84.65414708033646</v>
       </c>
       <c r="H21">
-        <v>7.849874814461098</v>
+        <v>5.812478033511549</v>
       </c>
       <c r="I21">
-        <v>14.76182103367852</v>
+        <v>3.108879883061435</v>
       </c>
       <c r="J21">
-        <v>10.40236439026532</v>
+        <v>21.08724396714342</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.39812061536864</v>
       </c>
       <c r="L21">
-        <v>14.91410995386899</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.16435118244555</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.68702053030646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>37.96599591325268</v>
+      </c>
+      <c r="P21">
+        <v>15.57310312698017</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.44040496900325</v>
+        <v>10.8369402840658</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.642670972037845</v>
+        <v>4.343808504757519</v>
       </c>
       <c r="E22">
-        <v>15.51599967021741</v>
+        <v>20.10274290486337</v>
       </c>
       <c r="F22">
-        <v>16.96924970459408</v>
+        <v>55.74338254625783</v>
       </c>
       <c r="G22">
-        <v>25.05139965857546</v>
+        <v>88.17705737217452</v>
       </c>
       <c r="H22">
-        <v>7.891631212938139</v>
+        <v>6.134571782571192</v>
       </c>
       <c r="I22">
-        <v>14.63540805236239</v>
+        <v>3.040822105739062</v>
       </c>
       <c r="J22">
-        <v>10.55490940018091</v>
+        <v>21.96168851834006</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.38012682713888</v>
       </c>
       <c r="L22">
-        <v>15.42672019273204</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.8621913779198</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.92297692242263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>39.36786070029964</v>
+      </c>
+      <c r="P22">
+        <v>15.72940451648335</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.96620994081536</v>
+        <v>10.67058228790038</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.665335050066091</v>
+        <v>4.256173418819039</v>
       </c>
       <c r="E23">
-        <v>15.39989502819608</v>
+        <v>19.76749375639879</v>
       </c>
       <c r="F23">
-        <v>16.87687370512658</v>
+        <v>54.56732274777362</v>
       </c>
       <c r="G23">
-        <v>24.63896379190772</v>
+        <v>86.3144575070056</v>
       </c>
       <c r="H23">
-        <v>7.868553280644325</v>
+        <v>5.962267987290621</v>
       </c>
       <c r="I23">
-        <v>14.70083201166615</v>
+        <v>3.065767467569793</v>
       </c>
       <c r="J23">
-        <v>10.47360352781672</v>
+        <v>21.49936048568004</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.35926723519211</v>
       </c>
       <c r="L23">
-        <v>15.155173048764</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.49251057286833</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.79571985968973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38.60870057770872</v>
+      </c>
+      <c r="P23">
+        <v>15.6271049480619</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.09248902311588</v>
+        <v>9.949568143414602</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.756354213786111</v>
+        <v>3.916105448399916</v>
       </c>
       <c r="E24">
-        <v>14.95910992095686</v>
+        <v>18.51054334722306</v>
       </c>
       <c r="F24">
-        <v>16.58674850150751</v>
+        <v>49.99818612888344</v>
       </c>
       <c r="G24">
-        <v>23.09118721995521</v>
+        <v>79.07645408812927</v>
       </c>
       <c r="H24">
-        <v>7.798165594959042</v>
+        <v>5.310725174776923</v>
       </c>
       <c r="I24">
-        <v>14.99177732117139</v>
+        <v>3.180745671645952</v>
       </c>
       <c r="J24">
-        <v>10.16345369538061</v>
+        <v>19.70352245932775</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.34119534341973</v>
       </c>
       <c r="L24">
-        <v>14.08173586006466</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.03135909838432</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.34273066660772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>35.65557982109991</v>
+      </c>
+      <c r="P24">
+        <v>15.26949500265141</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.90379376204706</v>
+        <v>9.094168106582101</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.865386361360118</v>
+        <v>3.533559730876412</v>
       </c>
       <c r="E25">
-        <v>14.48355367850261</v>
+        <v>17.17006075739071</v>
       </c>
       <c r="F25">
-        <v>16.39367597326585</v>
+        <v>44.81591049498604</v>
       </c>
       <c r="G25">
-        <v>21.4592542814971</v>
+        <v>70.86622373353568</v>
       </c>
       <c r="H25">
-        <v>7.75613246595128</v>
+        <v>4.602561754363009</v>
       </c>
       <c r="I25">
-        <v>15.38720109009685</v>
+        <v>3.310498833472676</v>
       </c>
       <c r="J25">
-        <v>9.825557904710514</v>
+        <v>17.66841089736028</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.34624689745364</v>
       </c>
       <c r="L25">
-        <v>12.82709425161147</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.39264823922555</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.91524988279195</v>
+        <v>32.24149943060898</v>
+      </c>
+      <c r="P25">
+        <v>14.88344416573397</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.499863411410869</v>
+        <v>9.138553791141772</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.313741827892755</v>
+        <v>3.447346291534417</v>
       </c>
       <c r="E2">
-        <v>16.18562664628432</v>
+        <v>15.35467321553448</v>
       </c>
       <c r="F2">
-        <v>40.77701316780077</v>
+        <v>40.64148779033852</v>
       </c>
       <c r="G2">
-        <v>64.46873534732948</v>
+        <v>64.6721693597289</v>
       </c>
       <c r="H2">
-        <v>4.070374369350361</v>
+        <v>3.921567201180712</v>
       </c>
       <c r="I2">
-        <v>3.384694172778727</v>
+        <v>3.119322727704534</v>
       </c>
       <c r="J2">
-        <v>16.15036272824016</v>
+        <v>16.71584751519973</v>
       </c>
       <c r="K2">
-        <v>14.30317083822928</v>
+        <v>13.38063262843908</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.52771599619823</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.255015807519559</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.47518549498137</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.55495030654095</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.99551496710319</v>
+      </c>
+      <c r="R2">
+        <v>14.11661405599997</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.002001435992138</v>
+        <v>8.623685698251341</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.165029926852465</v>
+        <v>3.302808736059357</v>
       </c>
       <c r="E3">
-        <v>15.50565536056099</v>
+        <v>14.74435641014269</v>
       </c>
       <c r="F3">
-        <v>37.8700131511535</v>
+        <v>37.86486494741875</v>
       </c>
       <c r="G3">
-        <v>59.86112528773587</v>
+        <v>60.04944333458743</v>
       </c>
       <c r="H3">
-        <v>3.701528590974822</v>
+        <v>3.569329328070726</v>
       </c>
       <c r="I3">
-        <v>3.452535780044081</v>
+        <v>3.175241605507077</v>
       </c>
       <c r="J3">
-        <v>15.1832860733427</v>
+        <v>15.80957736554167</v>
       </c>
       <c r="K3">
-        <v>14.32690181947142</v>
+        <v>13.41155963675977</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.47303626407141</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.410526389182625</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.4942353668892</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.36129708141931</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.0729395178212</v>
+      </c>
+      <c r="R3">
+        <v>13.93115925247858</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.67464955635163</v>
+        <v>8.283469373039971</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.072074086076821</v>
+        <v>3.211676238821267</v>
       </c>
       <c r="E4">
-        <v>15.08151952455735</v>
+        <v>14.3630299072269</v>
       </c>
       <c r="F4">
-        <v>36.04259839107524</v>
+        <v>36.13260325784509</v>
       </c>
       <c r="G4">
-        <v>56.90177614105713</v>
+        <v>57.0796362622045</v>
       </c>
       <c r="H4">
-        <v>3.470175078068395</v>
+        <v>3.348126625140067</v>
       </c>
       <c r="I4">
-        <v>3.496141868427847</v>
+        <v>3.211546528351116</v>
       </c>
       <c r="J4">
-        <v>14.57181029524657</v>
+        <v>15.23288275353391</v>
       </c>
       <c r="K4">
-        <v>14.34887075452556</v>
+        <v>13.4384248596505</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.46065634419475</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.51157026774351</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.21311194572922</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.24466661304668</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.83261938695108</v>
+      </c>
+      <c r="R4">
+        <v>13.82043730551967</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.523813817326505</v>
+        <v>8.127987860878928</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.033265764954735</v>
+        <v>3.173496506603169</v>
       </c>
       <c r="E5">
-        <v>14.90603623256736</v>
+        <v>14.2050044700809</v>
       </c>
       <c r="F5">
-        <v>35.30169208105664</v>
+        <v>35.40684711657731</v>
       </c>
       <c r="G5">
-        <v>55.65864863489745</v>
+        <v>55.832383182846</v>
       </c>
       <c r="H5">
-        <v>3.374641476262014</v>
+        <v>3.256719270952214</v>
       </c>
       <c r="I5">
-        <v>3.5171884914813</v>
+        <v>3.230134341230172</v>
       </c>
       <c r="J5">
-        <v>14.31733013597698</v>
+        <v>14.99208308890867</v>
       </c>
       <c r="K5">
-        <v>14.36623492061945</v>
+        <v>13.45577454427479</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.4614844273627</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.560306834302445</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.68037021427511</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.2024390545992</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>25.31678857893209</v>
+      </c>
+      <c r="R5">
+        <v>13.78003761938283</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.483711384506102</v>
+        <v>8.088630769090969</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.026151599012467</v>
+        <v>3.166556471624672</v>
       </c>
       <c r="E6">
-        <v>14.87589744698082</v>
+        <v>14.17771665812831</v>
       </c>
       <c r="F6">
-        <v>35.17480874492831</v>
+        <v>35.28275176751388</v>
       </c>
       <c r="G6">
-        <v>55.44537476350156</v>
+        <v>55.61891107342716</v>
       </c>
       <c r="H6">
-        <v>3.35877047596884</v>
+        <v>3.241520783890009</v>
       </c>
       <c r="I6">
-        <v>3.524267939695095</v>
+        <v>3.237483369602266</v>
       </c>
       <c r="J6">
-        <v>14.27363398565241</v>
+        <v>14.9507678831575</v>
       </c>
       <c r="K6">
-        <v>14.37733967861364</v>
+        <v>13.46428065377323</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.46266548465274</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.576030728550643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.59792208309912</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.20121521040708</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>25.23672483057364</v>
+      </c>
+      <c r="R6">
+        <v>13.77814812783826</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.633279637787638</v>
+        <v>8.247502283549693</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.069817064405317</v>
+        <v>3.199399175919817</v>
       </c>
       <c r="E7">
-        <v>15.07679975553748</v>
+        <v>14.35603250281738</v>
       </c>
       <c r="F7">
-        <v>36.02523388243365</v>
+        <v>36.06913356041579</v>
       </c>
       <c r="G7">
-        <v>56.87230030786068</v>
+        <v>57.11328097350273</v>
       </c>
       <c r="H7">
-        <v>3.469099791182814</v>
+        <v>3.345791519451983</v>
       </c>
       <c r="I7">
-        <v>3.505780437841481</v>
+        <v>3.22300107192444</v>
       </c>
       <c r="J7">
-        <v>14.56523912841266</v>
+        <v>15.13669342652599</v>
       </c>
       <c r="K7">
-        <v>14.37144412178811</v>
+        <v>13.45480228104713</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.463901866282</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.533326757032887</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.22464619374663</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.25986176160075</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.8264046213849</v>
+      </c>
+      <c r="R7">
+        <v>13.8343422619269</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.284398585657406</v>
+        <v>8.926854964345893</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.260654323676065</v>
+        <v>3.363666638696043</v>
       </c>
       <c r="E8">
-        <v>15.94939882200163</v>
+        <v>15.13492114081335</v>
       </c>
       <c r="F8">
-        <v>39.78252529976994</v>
+        <v>39.52598144300481</v>
       </c>
       <c r="G8">
-        <v>62.89126582304543</v>
+        <v>63.27893215547441</v>
       </c>
       <c r="H8">
-        <v>3.944451450073964</v>
+        <v>3.797236991348364</v>
       </c>
       <c r="I8">
-        <v>3.419350223381792</v>
+        <v>3.152353949404744</v>
       </c>
       <c r="J8">
-        <v>15.81677902754794</v>
+        <v>16.12297581127417</v>
       </c>
       <c r="K8">
-        <v>14.3403693141399</v>
+        <v>13.41442140369</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.51444735717946</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.335391880659031</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.82819633302654</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.50884288596057</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>28.31249388598236</v>
+      </c>
+      <c r="R8">
+        <v>14.074359757349</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.450748151744971</v>
+        <v>10.12002561402282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.666874579791394</v>
+        <v>3.706674467772766</v>
       </c>
       <c r="E9">
-        <v>17.6249972217256</v>
+        <v>16.6333640000188</v>
       </c>
       <c r="F9">
-        <v>46.60816297078181</v>
+        <v>46.16276733606652</v>
       </c>
       <c r="G9">
-        <v>73.70746320331767</v>
+        <v>74.14267639096956</v>
       </c>
       <c r="H9">
-        <v>4.841892988234972</v>
+        <v>4.651466085877944</v>
       </c>
       <c r="I9">
-        <v>3.250012280005415</v>
+        <v>3.011081397037567</v>
       </c>
       <c r="J9">
-        <v>18.37247671796217</v>
+        <v>18.22952812917275</v>
       </c>
       <c r="K9">
-        <v>14.29761498773182</v>
+        <v>13.36582601391475</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.76451866384994</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.954743098267674</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.39605062898966</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>14.98445855889504</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>32.83249589446407</v>
+      </c>
+      <c r="R9">
+        <v>14.53869775963766</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.20208450586895</v>
+        <v>10.8993898306315</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.963970630469783</v>
+        <v>3.847180003865886</v>
       </c>
       <c r="E10">
-        <v>18.86139870916994</v>
+        <v>17.71215141457643</v>
       </c>
       <c r="F10">
-        <v>51.04593326235391</v>
+        <v>50.24603462501093</v>
       </c>
       <c r="G10">
-        <v>80.70455915644594</v>
+        <v>81.43154444175727</v>
       </c>
       <c r="H10">
-        <v>5.452578611978965</v>
+        <v>5.222940263764595</v>
       </c>
       <c r="I10">
-        <v>3.141996774720206</v>
+        <v>2.925055160311094</v>
       </c>
       <c r="J10">
-        <v>20.10642816654489</v>
+        <v>19.16740943477818</v>
       </c>
       <c r="K10">
-        <v>14.35419183218571</v>
+        <v>13.41317382575788</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.07372471778514</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.736598702253499</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>36.11629633022437</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>15.39306889004414</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>35.44518317526489</v>
+      </c>
+      <c r="R10">
+        <v>14.94420586265511</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.62569910545455</v>
+        <v>11.42330614949708</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.703844852641057</v>
+        <v>3.401628626671985</v>
       </c>
       <c r="E11">
-        <v>20.18885863097286</v>
+        <v>18.84749036246663</v>
       </c>
       <c r="F11">
-        <v>51.14291963227004</v>
+        <v>49.86424621677494</v>
       </c>
       <c r="G11">
-        <v>80.56595935878438</v>
+        <v>81.90242059337824</v>
       </c>
       <c r="H11">
-        <v>5.818304902876225</v>
+        <v>5.583229665786271</v>
       </c>
       <c r="I11">
-        <v>3.13086567639333</v>
+        <v>2.924245658603065</v>
       </c>
       <c r="J11">
-        <v>20.06300924649686</v>
+        <v>18.10146711751796</v>
       </c>
       <c r="K11">
-        <v>14.77921422210439</v>
+        <v>13.74156968445731</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.45203400675362</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.881004860039914</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.38729581525768</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>16.00024402972442</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>33.52761475466678</v>
+      </c>
+      <c r="R11">
+        <v>15.51030533628322</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.88251523605953</v>
+        <v>11.74962647347664</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.439268442679983</v>
+        <v>3.042840593552211</v>
       </c>
       <c r="E12">
-        <v>21.85932604498157</v>
+        <v>20.41754784608932</v>
       </c>
       <c r="F12">
-        <v>50.31903042877204</v>
+        <v>48.832778892871</v>
       </c>
       <c r="G12">
-        <v>79.02317951565547</v>
+        <v>80.6577220512017</v>
       </c>
       <c r="H12">
-        <v>6.472843540031707</v>
+        <v>6.260305061897584</v>
       </c>
       <c r="I12">
-        <v>3.126510576686135</v>
+        <v>2.920731770010241</v>
       </c>
       <c r="J12">
-        <v>19.67222555115614</v>
+        <v>17.25576769994207</v>
       </c>
       <c r="K12">
-        <v>15.10515418924544</v>
+        <v>13.9878400036318</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.69034036185666</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.028445679191572</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.34212906364776</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>16.41466954895042</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>31.39292006429088</v>
+      </c>
+      <c r="R12">
+        <v>15.88707823008623</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.98829474908267</v>
+        <v>11.91080183919301</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.149065709539147</v>
+        <v>2.759500045585257</v>
       </c>
       <c r="E13">
-        <v>23.74753707668692</v>
+        <v>22.30743389566268</v>
       </c>
       <c r="F13">
-        <v>48.6924244102448</v>
+        <v>47.27773830478952</v>
       </c>
       <c r="G13">
-        <v>76.2272201436972</v>
+        <v>77.83792911949512</v>
       </c>
       <c r="H13">
-        <v>7.297529104147893</v>
+        <v>7.120304426977119</v>
       </c>
       <c r="I13">
-        <v>3.141133804619813</v>
+        <v>2.931817424901998</v>
       </c>
       <c r="J13">
-        <v>18.97040402272833</v>
+        <v>16.68460527173386</v>
       </c>
       <c r="K13">
-        <v>15.40438947167694</v>
+        <v>14.20249253269593</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.83652472448891</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.209980584178862</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.89546554922541</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>16.72860581653661</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>28.95218262757523</v>
+      </c>
+      <c r="R13">
+        <v>16.15514527406044</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.98676604266056</v>
+        <v>11.94333953924736</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.936277641215133</v>
+        <v>2.573099689659944</v>
       </c>
       <c r="E14">
-        <v>25.20127777491449</v>
+        <v>23.81574376107174</v>
       </c>
       <c r="F14">
-        <v>47.16864255716387</v>
+        <v>45.92666873912517</v>
       </c>
       <c r="G14">
-        <v>73.66491415381955</v>
+        <v>75.11745939477565</v>
       </c>
       <c r="H14">
-        <v>7.961548804383842</v>
+        <v>7.810543347906348</v>
       </c>
       <c r="I14">
-        <v>3.162527244830728</v>
+        <v>2.94946842275106</v>
       </c>
       <c r="J14">
-        <v>18.3287185343669</v>
+        <v>16.39345567766873</v>
       </c>
       <c r="K14">
-        <v>15.61044649174486</v>
+        <v>14.34437343148759</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.89946375522955</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.359693774938728</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.97812416083917</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>16.90887773199561</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>27.07908072283051</v>
+      </c>
+      <c r="R14">
+        <v>16.29842927270351</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.94145502486473</v>
+        <v>11.90515877352441</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.875870525548454</v>
+        <v>2.528344362885391</v>
       </c>
       <c r="E15">
-        <v>25.51456877521909</v>
+        <v>24.1619653560851</v>
       </c>
       <c r="F15">
-        <v>46.61643868490061</v>
+        <v>45.47045430672406</v>
       </c>
       <c r="G15">
-        <v>72.75644672758003</v>
+        <v>74.1093147146852</v>
       </c>
       <c r="H15">
-        <v>8.108992318805269</v>
+        <v>7.965706992944171</v>
       </c>
       <c r="I15">
-        <v>3.176129430147935</v>
+        <v>2.962095825992668</v>
       </c>
       <c r="J15">
-        <v>18.10189954575496</v>
+        <v>16.36611667266444</v>
       </c>
       <c r="K15">
-        <v>15.66429622217861</v>
+        <v>14.37971193803872</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.89955661213135</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.410850968995652</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.42288603617358</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>16.93669575093213</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>26.55167691200074</v>
+      </c>
+      <c r="R15">
+        <v>16.31492460683976</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.6031544990446</v>
+        <v>11.54351791262704</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.786381607021913</v>
+        <v>2.521997901172339</v>
       </c>
       <c r="E16">
-        <v>24.69376922617097</v>
+        <v>23.49807046042653</v>
       </c>
       <c r="F16">
-        <v>44.95976419937342</v>
+        <v>44.26901770319693</v>
       </c>
       <c r="G16">
-        <v>70.16761792166965</v>
+        <v>71.00427607081212</v>
       </c>
       <c r="H16">
-        <v>7.772932912991018</v>
+        <v>7.64581676218376</v>
       </c>
       <c r="I16">
-        <v>3.224562141278176</v>
+        <v>3.002596367245001</v>
       </c>
       <c r="J16">
-        <v>17.46108615934063</v>
+        <v>16.69318136139608</v>
       </c>
       <c r="K16">
-        <v>15.57510264542176</v>
+        <v>14.2923770766711</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.6887675677278</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.472322812355797</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.62198381274336</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>16.70452088441609</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>25.89961826515649</v>
+      </c>
+      <c r="R16">
+        <v>16.07488471827686</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.33642748697374</v>
+        <v>11.24097630005815</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.832957727039783</v>
+        <v>2.650009461920841</v>
       </c>
       <c r="E17">
-        <v>23.20058898428922</v>
+        <v>22.07092315466708</v>
       </c>
       <c r="F17">
-        <v>44.52406025370745</v>
+        <v>44.03675408181329</v>
       </c>
       <c r="G17">
-        <v>69.58945508574395</v>
+        <v>70.18060930211173</v>
       </c>
       <c r="H17">
-        <v>7.107157329419264</v>
+        <v>6.978954516043541</v>
       </c>
       <c r="I17">
-        <v>3.251181551038496</v>
+        <v>3.025247905155658</v>
       </c>
       <c r="J17">
-        <v>17.32233266414422</v>
+        <v>16.99746191334136</v>
       </c>
       <c r="K17">
-        <v>15.39978642893664</v>
+        <v>14.15640722751941</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.50388943123479</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.440853617230143</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.06649225679168</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>16.42955087515717</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>26.41811285879657</v>
+      </c>
+      <c r="R17">
+        <v>15.81712760528905</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.13471463432684</v>
+        <v>10.98325579136092</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.01821502368605</v>
+        <v>2.925936068936744</v>
       </c>
       <c r="E18">
-        <v>21.17757760884709</v>
+        <v>20.06668915004729</v>
       </c>
       <c r="F18">
-        <v>45.11749135827737</v>
+        <v>44.71151217770481</v>
       </c>
       <c r="G18">
-        <v>70.72275179819503</v>
+        <v>71.18413383990085</v>
       </c>
       <c r="H18">
-        <v>6.184831473347241</v>
+        <v>6.039845262163372</v>
       </c>
       <c r="I18">
-        <v>3.251490083334339</v>
+        <v>3.022545981293797</v>
       </c>
       <c r="J18">
-        <v>17.61099676565015</v>
+        <v>17.47380849732144</v>
       </c>
       <c r="K18">
-        <v>15.11129648170238</v>
+        <v>13.94467497584052</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.30732199727623</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.308361315928213</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.64763739669157</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>16.07633276191227</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>28.04416473752543</v>
+      </c>
+      <c r="R18">
+        <v>15.50246553534783</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.946117266850813</v>
+        <v>10.73215078084708</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.314183619494539</v>
+        <v>3.280419554056234</v>
       </c>
       <c r="E19">
-        <v>19.36772344755037</v>
+        <v>18.25881424219268</v>
       </c>
       <c r="F19">
-        <v>46.47979032149006</v>
+        <v>46.08230718782315</v>
       </c>
       <c r="G19">
-        <v>73.12218257468041</v>
+        <v>73.51989044337392</v>
       </c>
       <c r="H19">
-        <v>5.390040169120916</v>
+        <v>5.216019263622844</v>
       </c>
       <c r="I19">
-        <v>3.247950794112654</v>
+        <v>3.021348471696751</v>
       </c>
       <c r="J19">
-        <v>18.21472767149901</v>
+        <v>18.10776176531666</v>
       </c>
       <c r="K19">
-        <v>14.81964089474462</v>
+        <v>13.73776578446645</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.14968946140808</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.146667238046815</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.0441588530454</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>15.72712484292863</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>30.46622367575341</v>
+      </c>
+      <c r="R19">
+        <v>15.19851007867054</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.917244283387589</v>
+        <v>10.61544329905865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.881360052661591</v>
+        <v>3.835483310636714</v>
       </c>
       <c r="E20">
-        <v>18.52957396000124</v>
+        <v>17.42961277652308</v>
       </c>
       <c r="F20">
-        <v>49.87447270865412</v>
+        <v>49.2976615985026</v>
       </c>
       <c r="G20">
-        <v>78.85314029578424</v>
+        <v>79.34669999711086</v>
       </c>
       <c r="H20">
-        <v>5.291390655762608</v>
+        <v>5.076265285172437</v>
       </c>
       <c r="I20">
-        <v>3.199077227904453</v>
+        <v>2.982161066863945</v>
       </c>
       <c r="J20">
-        <v>19.64730350109963</v>
+        <v>19.17434105473863</v>
       </c>
       <c r="K20">
-        <v>14.41614669563535</v>
+        <v>13.45628279234645</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.02639422830971</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.842289132367599</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.44718429522155</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>15.33767100448065</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>34.84561299524251</v>
+      </c>
+      <c r="R20">
+        <v>14.8771625405939</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.45812117307175</v>
+        <v>11.1768809586289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.176776778914228</v>
+        <v>3.858251340550339</v>
       </c>
       <c r="E21">
-        <v>19.47176417124015</v>
+        <v>18.23315057770422</v>
       </c>
       <c r="F21">
-        <v>53.52007465643152</v>
+        <v>52.01328144440548</v>
       </c>
       <c r="G21">
-        <v>84.65414708033646</v>
+        <v>86.17495114124843</v>
       </c>
       <c r="H21">
-        <v>5.812478033511549</v>
+        <v>5.543589615776829</v>
       </c>
       <c r="I21">
-        <v>3.108879883061435</v>
+        <v>2.910030472932143</v>
       </c>
       <c r="J21">
-        <v>21.08724396714342</v>
+        <v>18.67934342628631</v>
       </c>
       <c r="K21">
-        <v>14.39812061536864</v>
+        <v>13.4729179257455</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.27318168871129</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.650195137881093</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>37.96599591325268</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>15.57310312698017</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>37.05225428123282</v>
+      </c>
+      <c r="R21">
+        <v>15.14905859679212</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.8369402840658</v>
+        <v>11.569194025107</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.343808504757519</v>
+        <v>3.83951738830231</v>
       </c>
       <c r="E22">
-        <v>20.10274290486337</v>
+        <v>18.77131076553781</v>
       </c>
       <c r="F22">
-        <v>55.74338254625783</v>
+        <v>53.60817067124369</v>
       </c>
       <c r="G22">
-        <v>88.17705737217452</v>
+        <v>90.3839912014196</v>
       </c>
       <c r="H22">
-        <v>6.134571782571192</v>
+        <v>5.829447564971728</v>
       </c>
       <c r="I22">
-        <v>3.040822105739062</v>
+        <v>2.851245789073316</v>
       </c>
       <c r="J22">
-        <v>21.96168851834006</v>
+        <v>18.24044729016208</v>
       </c>
       <c r="K22">
-        <v>14.38012682713888</v>
+        <v>13.48132920171162</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.44102535173746</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.521724139318598</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>39.36786070029964</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>15.72940451648335</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>38.24104722076186</v>
+      </c>
+      <c r="R22">
+        <v>15.33184914272151</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.67058228790038</v>
+        <v>11.38948094491787</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.256173418819039</v>
+        <v>3.872844520218943</v>
       </c>
       <c r="E23">
-        <v>19.76749375639879</v>
+        <v>18.48872491667086</v>
       </c>
       <c r="F23">
-        <v>54.56732274777362</v>
+        <v>52.85417083803507</v>
       </c>
       <c r="G23">
-        <v>86.3144575070056</v>
+        <v>88.04465864895573</v>
       </c>
       <c r="H23">
-        <v>5.962267987290621</v>
+        <v>5.679381075403657</v>
       </c>
       <c r="I23">
-        <v>3.065767467569793</v>
+        <v>2.868630192432931</v>
       </c>
       <c r="J23">
-        <v>21.49936048568004</v>
+        <v>18.6592775780474</v>
       </c>
       <c r="K23">
-        <v>14.35926723519211</v>
+        <v>13.44935002233068</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.33008908162027</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.568823646024253</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>38.60870057770872</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>15.6271049480619</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>37.6285474965444</v>
+      </c>
+      <c r="R23">
+        <v>15.21400467616529</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.949568143414602</v>
+        <v>10.63419727575672</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.916105448399916</v>
+        <v>3.875121651043108</v>
       </c>
       <c r="E24">
-        <v>18.51054334722306</v>
+        <v>17.4203499380111</v>
       </c>
       <c r="F24">
-        <v>49.99818612888344</v>
+        <v>49.42670327860517</v>
       </c>
       <c r="G24">
-        <v>79.07645408812927</v>
+        <v>79.55513608668129</v>
       </c>
       <c r="H24">
-        <v>5.310725174776923</v>
+        <v>5.095586981506173</v>
       </c>
       <c r="I24">
-        <v>3.180745671645952</v>
+        <v>2.960108463263687</v>
       </c>
       <c r="J24">
-        <v>19.70352245932775</v>
+        <v>19.24483633138482</v>
       </c>
       <c r="K24">
-        <v>14.34119534341973</v>
+        <v>13.39943281794882</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.98355675144508</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.797212762160193</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.65557982109991</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>15.26949500265141</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>35.06085272520438</v>
+      </c>
+      <c r="R24">
+        <v>14.81736521489744</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.094168106582101</v>
+        <v>9.762891034380347</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.533559730876412</v>
+        <v>3.62667902031547</v>
       </c>
       <c r="E25">
-        <v>17.17006075739071</v>
+        <v>16.22981990026213</v>
       </c>
       <c r="F25">
-        <v>44.81591049498604</v>
+        <v>44.48058291103058</v>
       </c>
       <c r="G25">
-        <v>70.86622373353568</v>
+        <v>71.22001369428158</v>
       </c>
       <c r="H25">
-        <v>4.602561754363009</v>
+        <v>4.425671135600762</v>
       </c>
       <c r="I25">
-        <v>3.310498833472676</v>
+        <v>3.067102537127179</v>
       </c>
       <c r="J25">
-        <v>17.66841089736028</v>
+        <v>17.78466942087923</v>
       </c>
       <c r="K25">
-        <v>14.34624689745364</v>
+        <v>13.40374373767291</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.69832496602568</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.083392247714027</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.24149943060898</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.88344416573397</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>31.70540847114142</v>
+      </c>
+      <c r="R25">
+        <v>14.43386838083224</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
